--- a/Goals and Tasks.xlsx
+++ b/Goals and Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanja\Documents\GitHub\AI-Python_Deeplearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C36A2E8-5E9C-4F76-B5CF-3D9FAC88AB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F8F731-C6D1-4442-840E-6709F18B3A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Curriculum" sheetId="1" state="hidden" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="382">
   <si>
     <t>Phase</t>
   </si>
@@ -1143,13 +1143,43 @@
   </si>
   <si>
     <t>Basics of AI Python Coding 2</t>
+  </si>
+  <si>
+    <t>Day1 Logic Building</t>
+  </si>
+  <si>
+    <t>Customer Who Visited but Did Not Make Any Transactions</t>
+  </si>
+  <si>
+    <t>Re Visit</t>
+  </si>
+  <si>
+    <t>Break the problem clearly</t>
+  </si>
+  <si>
+    <t>Not Boring Movies</t>
+  </si>
+  <si>
+    <t>Number of Unique Subjects Taught by Each Teacher</t>
+  </si>
+  <si>
+    <t>Rising Temperature</t>
+  </si>
+  <si>
+    <t>Need to understand DateDIFF function</t>
+  </si>
+  <si>
+    <t>Automating Tasks with Python 1</t>
+  </si>
+  <si>
+    <t>Automating Tasks with Python 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1169,6 +1199,12 @@
       <b/>
       <sz val="13"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1212,7 +1248,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1229,32 +1265,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1262,12 +1341,63 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5363,8 +5493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE52335-7D91-466B-9120-E00FFD104A09}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5374,355 +5504,493 @@
     <col min="3" max="3" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.44140625" customWidth="1"/>
     <col min="5" max="5" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.77734375" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="12" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="10" t="s">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-    </row>
-    <row r="2" spans="1:18" s="12" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+    </row>
+    <row r="2" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="L2" s="23"/>
+      <c r="M2" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-    </row>
-    <row r="3" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+    </row>
+    <row r="3" spans="1:18" s="16" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="16">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="17">
         <v>46059</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="24"/>
+      <c r="G3" s="25" t="s">
         <v>370</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="17">
         <v>46059</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="7">
         <v>46060</v>
       </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4">
+      <c r="L3" s="24"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+    </row>
+    <row r="4" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="D4" s="3">
-        <v>46059</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="17"/>
+      <c r="E4" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5">
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="7"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+    </row>
+    <row r="5" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="26"/>
+      <c r="B5" s="27">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="31" t="s">
         <v>361</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="G5" s="33"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="7"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+    </row>
+    <row r="6" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="16">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="17">
         <v>46060</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="F6" s="24"/>
+      <c r="G6" s="25" t="s">
         <v>371</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="17">
         <v>46060</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7">
+      <c r="I6" s="7"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+    </row>
+    <row r="7" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="D7" s="3">
-        <v>46060</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D7" s="17"/>
+      <c r="E7" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8">
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="7"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+    </row>
+    <row r="8" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="D8" s="3">
-        <v>46060</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="17"/>
+      <c r="E8" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9">
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="7"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+    </row>
+    <row r="9" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="27" t="s">
         <v>364</v>
       </c>
-      <c r="D9" s="3">
-        <v>46060</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="27" t="s">
         <v>355</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B10">
+      <c r="F9" s="29"/>
+      <c r="G9" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="H9" s="28"/>
+      <c r="I9" s="7"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+    </row>
+    <row r="10" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>3</v>
+      </c>
+      <c r="B10" s="16">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B11">
+      <c r="C10" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="I10" s="17">
+        <v>46062</v>
+      </c>
+      <c r="L10" s="24"/>
+    </row>
+    <row r="11" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B12">
+      <c r="C11" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="D11" s="20">
+        <v>46061</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="H11" s="20">
+        <v>46061</v>
+      </c>
+      <c r="I11" s="34"/>
+      <c r="L11" s="24"/>
+    </row>
+    <row r="12" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B13">
+      <c r="C12" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="D12" s="20">
+        <v>46061</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="H12" s="20">
+        <v>46062</v>
+      </c>
+      <c r="I12" s="34"/>
+      <c r="L12" s="24"/>
+    </row>
+    <row r="13" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27">
         <v>11</v>
       </c>
+      <c r="C13" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>357</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="I13" s="35"/>
+      <c r="L13" s="29"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B14">
+      <c r="A14" s="19"/>
+      <c r="B14" s="16">
         <v>12</v>
       </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B15">
+      <c r="A15" s="19"/>
+      <c r="B15" s="16">
         <v>13</v>
       </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B16">
+      <c r="A16" s="19"/>
+      <c r="B16" s="16">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="19"/>
+      <c r="B17" s="16">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="19"/>
+      <c r="B18" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="19"/>
+      <c r="B19" s="16">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20">
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="19"/>
+      <c r="B20" s="16">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21">
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="19"/>
+      <c r="B21" s="16">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22">
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="19"/>
+      <c r="B22" s="16">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23">
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="19"/>
+      <c r="B23" s="16">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24">
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="19"/>
+      <c r="B24" s="16">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25">
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25" s="16">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26">
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="19"/>
+      <c r="B26" s="16">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27">
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="19"/>
+      <c r="B27" s="16">
         <v>25</v>
       </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:F27" xr:uid="{CAE52335-7D91-466B-9120-E00FFD104A09}"/>
-  <mergeCells count="11">
+  <mergeCells count="15">
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="I10:I13"/>
     <mergeCell ref="M1:R1"/>
-    <mergeCell ref="G6:G9"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="I3:I9"/>
@@ -5732,7 +6000,11 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="G1:L1"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Goals and Tasks.xlsx
+++ b/Goals and Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanja\Documents\GitHub\AI-Python_Deeplearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F8F731-C6D1-4442-840E-6709F18B3A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4875B7F5-9FD9-46A0-808A-0699EAF5AB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Curriculum" sheetId="1" state="hidden" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="386">
   <si>
     <t>Phase</t>
   </si>
@@ -1173,6 +1173,18 @@
   </si>
   <si>
     <t>Automating Tasks with Python 2</t>
+  </si>
+  <si>
+    <t>Day 2 Logic Building</t>
+  </si>
+  <si>
+    <t>Day 3 Logic Building</t>
+  </si>
+  <si>
+    <t>Working with Your Own Data and Documents in Python 1</t>
+  </si>
+  <si>
+    <t>project-employees-i</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1314,11 +1326,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1326,13 +1369,32 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1341,63 +1403,51 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4228,7 +4278,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="18" t="s">
         <v>320</v>
       </c>
       <c r="B1" t="s">
@@ -4236,37 +4286,37 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
+      <c r="A2" s="18"/>
       <c r="B2" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+      <c r="A3" s="18"/>
       <c r="B3" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+      <c r="A4" s="18"/>
       <c r="B4" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+      <c r="A5" s="18"/>
       <c r="B5" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
+      <c r="A6" s="18"/>
       <c r="B6" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
+      <c r="A7" s="18"/>
       <c r="B7" t="s">
         <v>324</v>
       </c>
@@ -4314,10 +4364,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
@@ -4328,8 +4378,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
       <c r="C3" t="s">
         <v>19</v>
       </c>
@@ -4338,8 +4388,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" t="s">
         <v>24</v>
       </c>
@@ -4360,8 +4410,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -4376,8 +4426,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -4386,8 +4436,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
       <c r="C7" t="s">
         <v>39</v>
       </c>
@@ -4396,8 +4446,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
       <c r="C8" t="s">
         <v>44</v>
       </c>
@@ -4406,8 +4456,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C9" t="s">
@@ -4418,8 +4468,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C10" t="s">
@@ -4430,8 +4480,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C11" t="s">
@@ -4442,8 +4492,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C12" t="s">
@@ -4454,8 +4504,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C13" t="s">
@@ -4466,8 +4516,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C14" t="s">
@@ -4478,8 +4528,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C15" t="s">
@@ -4490,8 +4540,8 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18" t="s">
         <v>78</v>
       </c>
       <c r="C16" t="s">
@@ -4502,8 +4552,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18" t="s">
         <v>78</v>
       </c>
       <c r="C17" t="s">
@@ -4514,8 +4564,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18" t="s">
         <v>78</v>
       </c>
       <c r="C18" t="s">
@@ -4526,8 +4576,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18" t="s">
         <v>78</v>
       </c>
       <c r="C19" t="s">
@@ -4538,8 +4588,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18" t="s">
         <v>78</v>
       </c>
       <c r="C20" t="s">
@@ -4550,8 +4600,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18" t="s">
         <v>78</v>
       </c>
       <c r="C21" t="s">
@@ -4562,8 +4612,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18" t="s">
         <v>78</v>
       </c>
       <c r="C22" t="s">
@@ -4574,8 +4624,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18" t="s">
         <v>102</v>
       </c>
       <c r="C23" t="s">
@@ -4586,8 +4636,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18" t="s">
         <v>102</v>
       </c>
       <c r="C24" t="s">
@@ -4598,8 +4648,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18" t="s">
         <v>102</v>
       </c>
       <c r="C25" t="s">
@@ -4610,8 +4660,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18" t="s">
         <v>102</v>
       </c>
       <c r="C26" t="s">
@@ -4622,8 +4672,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18" t="s">
         <v>102</v>
       </c>
       <c r="C27" t="s">
@@ -4634,8 +4684,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18" t="s">
         <v>102</v>
       </c>
       <c r="C28" t="s">
@@ -4646,8 +4696,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18" t="s">
         <v>102</v>
       </c>
       <c r="C29" t="s">
@@ -4658,10 +4708,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="18" t="s">
         <v>127</v>
       </c>
       <c r="C30" t="s">
@@ -4672,8 +4722,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18" t="s">
         <v>127</v>
       </c>
       <c r="C31" t="s">
@@ -4684,8 +4734,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5" t="s">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18" t="s">
         <v>127</v>
       </c>
       <c r="C32" t="s">
@@ -4696,8 +4746,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18" t="s">
         <v>127</v>
       </c>
       <c r="C33" t="s">
@@ -4708,8 +4758,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5" t="s">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18" t="s">
         <v>127</v>
       </c>
       <c r="C34" t="s">
@@ -4720,8 +4770,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5" t="s">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18" t="s">
         <v>127</v>
       </c>
       <c r="C35" t="s">
@@ -4732,8 +4782,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5" t="s">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18" t="s">
         <v>127</v>
       </c>
       <c r="C36" t="s">
@@ -4744,8 +4794,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5" t="s">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18" t="s">
         <v>152</v>
       </c>
       <c r="C37" t="s">
@@ -4756,8 +4806,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5" t="s">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18" t="s">
         <v>152</v>
       </c>
       <c r="C38" t="s">
@@ -4768,8 +4818,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5" t="s">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18" t="s">
         <v>152</v>
       </c>
       <c r="C39" t="s">
@@ -4780,8 +4830,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18" t="s">
         <v>152</v>
       </c>
       <c r="C40" t="s">
@@ -4792,8 +4842,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5" t="s">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18" t="s">
         <v>152</v>
       </c>
       <c r="C41" t="s">
@@ -4804,8 +4854,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5" t="s">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18" t="s">
         <v>152</v>
       </c>
       <c r="C42" t="s">
@@ -4816,8 +4866,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5" t="s">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18" t="s">
         <v>152</v>
       </c>
       <c r="C43" t="s">
@@ -4828,8 +4878,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5" t="s">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18" t="s">
         <v>176</v>
       </c>
       <c r="C44" t="s">
@@ -4840,8 +4890,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5" t="s">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18" t="s">
         <v>176</v>
       </c>
       <c r="C45" t="s">
@@ -4852,8 +4902,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5" t="s">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18" t="s">
         <v>176</v>
       </c>
       <c r="C46" t="s">
@@ -4864,8 +4914,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5" t="s">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18" t="s">
         <v>176</v>
       </c>
       <c r="C47" t="s">
@@ -4876,8 +4926,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5" t="s">
+      <c r="A48" s="18"/>
+      <c r="B48" s="18" t="s">
         <v>176</v>
       </c>
       <c r="C48" t="s">
@@ -4888,8 +4938,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5" t="s">
+      <c r="A49" s="18"/>
+      <c r="B49" s="18" t="s">
         <v>176</v>
       </c>
       <c r="C49" t="s">
@@ -4900,8 +4950,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5" t="s">
+      <c r="A50" s="18"/>
+      <c r="B50" s="18" t="s">
         <v>176</v>
       </c>
       <c r="C50" t="s">
@@ -4912,8 +4962,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5" t="s">
+      <c r="A51" s="18"/>
+      <c r="B51" s="18" t="s">
         <v>199</v>
       </c>
       <c r="C51" t="s">
@@ -4924,8 +4974,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5" t="s">
+      <c r="A52" s="18"/>
+      <c r="B52" s="18" t="s">
         <v>199</v>
       </c>
       <c r="C52" t="s">
@@ -4936,8 +4986,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5" t="s">
+      <c r="A53" s="18"/>
+      <c r="B53" s="18" t="s">
         <v>199</v>
       </c>
       <c r="C53" t="s">
@@ -4948,8 +4998,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5" t="s">
+      <c r="A54" s="18"/>
+      <c r="B54" s="18" t="s">
         <v>199</v>
       </c>
       <c r="C54" t="s">
@@ -4960,8 +5010,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5" t="s">
+      <c r="A55" s="18"/>
+      <c r="B55" s="18" t="s">
         <v>199</v>
       </c>
       <c r="C55" t="s">
@@ -4972,8 +5022,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5" t="s">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18" t="s">
         <v>199</v>
       </c>
       <c r="C56" t="s">
@@ -4984,8 +5034,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5" t="s">
+      <c r="A57" s="18"/>
+      <c r="B57" s="18" t="s">
         <v>199</v>
       </c>
       <c r="C57" t="s">
@@ -4996,10 +5046,10 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="18" t="s">
         <v>223</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="18" t="s">
         <v>224</v>
       </c>
       <c r="C58" t="s">
@@ -5010,8 +5060,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5" t="s">
+      <c r="A59" s="18"/>
+      <c r="B59" s="18" t="s">
         <v>224</v>
       </c>
       <c r="C59" t="s">
@@ -5022,8 +5072,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5" t="s">
+      <c r="A60" s="18"/>
+      <c r="B60" s="18" t="s">
         <v>224</v>
       </c>
       <c r="C60" t="s">
@@ -5034,8 +5084,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="5"/>
-      <c r="B61" s="5" t="s">
+      <c r="A61" s="18"/>
+      <c r="B61" s="18" t="s">
         <v>224</v>
       </c>
       <c r="C61" t="s">
@@ -5046,8 +5096,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5" t="s">
+      <c r="A62" s="18"/>
+      <c r="B62" s="18" t="s">
         <v>224</v>
       </c>
       <c r="C62" t="s">
@@ -5058,8 +5108,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="5"/>
-      <c r="B63" s="5" t="s">
+      <c r="A63" s="18"/>
+      <c r="B63" s="18" t="s">
         <v>224</v>
       </c>
       <c r="C63" t="s">
@@ -5070,8 +5120,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5" t="s">
+      <c r="A64" s="18"/>
+      <c r="B64" s="18" t="s">
         <v>224</v>
       </c>
       <c r="C64" t="s">
@@ -5082,8 +5132,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5" t="s">
+      <c r="A65" s="18"/>
+      <c r="B65" s="18" t="s">
         <v>249</v>
       </c>
       <c r="C65" t="s">
@@ -5094,8 +5144,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="5"/>
-      <c r="B66" s="5" t="s">
+      <c r="A66" s="18"/>
+      <c r="B66" s="18" t="s">
         <v>249</v>
       </c>
       <c r="C66" t="s">
@@ -5106,8 +5156,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="5"/>
-      <c r="B67" s="5" t="s">
+      <c r="A67" s="18"/>
+      <c r="B67" s="18" t="s">
         <v>249</v>
       </c>
       <c r="C67" t="s">
@@ -5118,8 +5168,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
-      <c r="B68" s="5" t="s">
+      <c r="A68" s="18"/>
+      <c r="B68" s="18" t="s">
         <v>249</v>
       </c>
       <c r="C68" t="s">
@@ -5130,8 +5180,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5" t="s">
+      <c r="A69" s="18"/>
+      <c r="B69" s="18" t="s">
         <v>249</v>
       </c>
       <c r="C69" t="s">
@@ -5142,8 +5192,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
-      <c r="B70" s="5" t="s">
+      <c r="A70" s="18"/>
+      <c r="B70" s="18" t="s">
         <v>249</v>
       </c>
       <c r="C70" t="s">
@@ -5154,8 +5204,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="5"/>
-      <c r="B71" s="5" t="s">
+      <c r="A71" s="18"/>
+      <c r="B71" s="18" t="s">
         <v>249</v>
       </c>
       <c r="C71" t="s">
@@ -5166,8 +5216,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5" t="s">
+      <c r="A72" s="18"/>
+      <c r="B72" s="18" t="s">
         <v>273</v>
       </c>
       <c r="C72" t="s">
@@ -5178,8 +5228,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5" t="s">
+      <c r="A73" s="18"/>
+      <c r="B73" s="18" t="s">
         <v>273</v>
       </c>
       <c r="C73" t="s">
@@ -5190,8 +5240,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5" t="s">
+      <c r="A74" s="18"/>
+      <c r="B74" s="18" t="s">
         <v>273</v>
       </c>
       <c r="C74" t="s">
@@ -5202,8 +5252,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="5"/>
-      <c r="B75" s="5" t="s">
+      <c r="A75" s="18"/>
+      <c r="B75" s="18" t="s">
         <v>273</v>
       </c>
       <c r="C75" t="s">
@@ -5214,8 +5264,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5" t="s">
+      <c r="A76" s="18"/>
+      <c r="B76" s="18" t="s">
         <v>273</v>
       </c>
       <c r="C76" t="s">
@@ -5226,8 +5276,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="5"/>
-      <c r="B77" s="5" t="s">
+      <c r="A77" s="18"/>
+      <c r="B77" s="18" t="s">
         <v>273</v>
       </c>
       <c r="C77" t="s">
@@ -5238,8 +5288,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5" t="s">
+      <c r="A78" s="18"/>
+      <c r="B78" s="18" t="s">
         <v>273</v>
       </c>
       <c r="C78" t="s">
@@ -5250,8 +5300,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5" t="s">
+      <c r="A79" s="18"/>
+      <c r="B79" s="18" t="s">
         <v>296</v>
       </c>
       <c r="C79" t="s">
@@ -5262,8 +5312,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5" t="s">
+      <c r="A80" s="18"/>
+      <c r="B80" s="18" t="s">
         <v>296</v>
       </c>
       <c r="C80" t="s">
@@ -5274,8 +5324,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5" t="s">
+      <c r="A81" s="18"/>
+      <c r="B81" s="18" t="s">
         <v>296</v>
       </c>
       <c r="C81" t="s">
@@ -5286,8 +5336,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5" t="s">
+      <c r="A82" s="18"/>
+      <c r="B82" s="18" t="s">
         <v>296</v>
       </c>
       <c r="C82" t="s">
@@ -5298,8 +5348,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5" t="s">
+      <c r="A83" s="18"/>
+      <c r="B83" s="18" t="s">
         <v>296</v>
       </c>
       <c r="C83" t="s">
@@ -5310,8 +5360,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5" t="s">
+      <c r="A84" s="18"/>
+      <c r="B84" s="18" t="s">
         <v>296</v>
       </c>
       <c r="C84" t="s">
@@ -5322,8 +5372,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5" t="s">
+      <c r="A85" s="18"/>
+      <c r="B85" s="18" t="s">
         <v>296</v>
       </c>
       <c r="C85" t="s">
@@ -5493,8 +5543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE52335-7D91-466B-9120-E00FFD104A09}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5504,56 +5554,56 @@
     <col min="3" max="3" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.44140625" customWidth="1"/>
     <col min="5" max="5" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.77734375" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="24"/>
+    <col min="12" max="12" width="8.88671875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="25" t="s">
         <v>329</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="21" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="8" t="s">
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="F2" s="23" t="s">
+      <c r="F2" s="8" t="s">
         <v>333</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -5565,431 +5615,432 @@
       <c r="I2" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="L2" s="23"/>
-      <c r="M2" s="10" t="s">
+      <c r="L2" s="8"/>
+      <c r="M2" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-    </row>
-    <row r="3" spans="1:18" s="16" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+    </row>
+    <row r="3" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" t="s">
         <v>351</v>
       </c>
       <c r="D3" s="17">
         <v>46059</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" t="s">
         <v>355</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="21" t="s">
         <v>370</v>
       </c>
       <c r="H3" s="17">
         <v>46059</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="17">
         <v>46060</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-    </row>
-    <row r="4" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
-      <c r="B4" s="16">
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" t="s">
         <v>352</v>
       </c>
       <c r="D4" s="17"/>
-      <c r="E4" s="16" t="s">
+      <c r="E4" t="s">
         <v>355</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="17"/>
-      <c r="I4" s="7"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-    </row>
-    <row r="5" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27">
+      <c r="I4" s="17"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+    </row>
+    <row r="5" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="B5" s="10">
         <v>3</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="7"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-    </row>
-    <row r="6" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="17"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>2</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" t="s">
         <v>359</v>
       </c>
       <c r="D6" s="17">
         <v>46060</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" t="s">
         <v>355</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="21" t="s">
         <v>371</v>
       </c>
       <c r="H6" s="17">
         <v>46060</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-    </row>
-    <row r="7" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="17"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
-      <c r="B7" s="16">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" t="s">
         <v>362</v>
       </c>
       <c r="D7" s="17"/>
-      <c r="E7" s="16" t="s">
+      <c r="E7" t="s">
         <v>355</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="17"/>
-      <c r="I7" s="7"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-    </row>
-    <row r="8" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="17"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
-      <c r="B8" s="16">
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" t="s">
         <v>363</v>
       </c>
       <c r="D8" s="17"/>
-      <c r="E8" s="16" t="s">
+      <c r="E8" t="s">
         <v>355</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
+      <c r="G8" s="21"/>
       <c r="H8" s="17"/>
-      <c r="I8" s="7"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-    </row>
-    <row r="9" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27">
+      <c r="I8" s="17"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+    </row>
+    <row r="9" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="10">
         <v>7</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="27" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="30" t="s">
+      <c r="F9" s="11"/>
+      <c r="G9" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="7"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-    </row>
-    <row r="10" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="23"/>
+      <c r="I9" s="17"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>3</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" t="s">
         <v>373</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" t="s">
         <v>357</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="9" t="s">
         <v>375</v>
       </c>
       <c r="I10" s="17">
         <v>46062</v>
       </c>
-      <c r="L10" s="24"/>
-    </row>
-    <row r="11" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="15"/>
-      <c r="B11" s="16">
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" t="s">
         <v>376</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="3">
         <v>46061</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" t="s">
         <v>355</v>
       </c>
-      <c r="F11" s="24"/>
-      <c r="G11" s="16" t="s">
+      <c r="G11" t="s">
         <v>380</v>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="3">
         <v>46061</v>
       </c>
-      <c r="I11" s="34"/>
-      <c r="L11" s="24"/>
-    </row>
-    <row r="12" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="17"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="15"/>
-      <c r="B12" s="16">
+      <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" t="s">
         <v>377</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="3">
         <v>46061</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" t="s">
         <v>355</v>
       </c>
-      <c r="F12" s="24"/>
-      <c r="G12" s="16" t="s">
+      <c r="G12" t="s">
         <v>381</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="17">
         <v>46062</v>
       </c>
-      <c r="I12" s="34"/>
-      <c r="L12" s="24"/>
-    </row>
-    <row r="13" spans="1:18" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27">
+      <c r="I12" s="17"/>
+    </row>
+    <row r="13" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="10">
         <v>11</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="F13" s="29" t="s">
+      <c r="F13" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="I13" s="35"/>
-      <c r="L13" s="29"/>
+      <c r="G13" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="17"/>
+      <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="16">
+      <c r="A14" s="30">
+        <v>4</v>
+      </c>
+      <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="16">
+      <c r="C14" s="34" t="s">
+        <v>385</v>
+      </c>
+      <c r="D14" s="36">
+        <v>46062</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" t="s">
+        <v>381</v>
+      </c>
+      <c r="H14" s="17">
+        <v>46062</v>
+      </c>
+      <c r="I14" s="17"/>
+    </row>
+    <row r="15" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="10">
         <v>13</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="16">
+      <c r="C15" s="35"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="17"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30">
+        <v>5</v>
+      </c>
+      <c r="B16" s="31">
         <v>14</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="16">
+      <c r="F16" s="9"/>
+      <c r="G16" s="29" t="s">
+        <v>383</v>
+      </c>
+      <c r="H16" s="32">
+        <v>46063</v>
+      </c>
+      <c r="L16" s="9"/>
+    </row>
+    <row r="17" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="10">
         <v>15</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="16">
+      <c r="F17" s="11"/>
+      <c r="G17" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="H17" s="33">
+        <v>46063</v>
+      </c>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18">
         <v>16</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="16">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19">
         <v>17</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="16">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20">
         <v>18</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="16">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21">
         <v>19</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="19"/>
-      <c r="B22" s="16">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22">
         <v>20</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="19"/>
-      <c r="B23" s="16">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23">
         <v>21</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="19"/>
-      <c r="B24" s="16">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24">
         <v>22</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="19"/>
-      <c r="B25" s="16">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25">
         <v>23</v>
       </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="19"/>
-      <c r="B26" s="16">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26">
         <v>24</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="19"/>
-      <c r="B27" s="16">
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27">
         <v>25</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:F27" xr:uid="{CAE52335-7D91-466B-9120-E00FFD104A09}"/>
-  <mergeCells count="15">
+  <mergeCells count="23">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="A10:A13"/>
-    <mergeCell ref="I10:I13"/>
     <mergeCell ref="M1:R1"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="H3:H5"/>
@@ -6003,8 +6054,10 @@
     <mergeCell ref="G6:G8"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="D3:D4"/>
+    <mergeCell ref="H12:H13"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Goals and Tasks.xlsx
+++ b/Goals and Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanja\Documents\GitHub\AI-Python_Deeplearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4875B7F5-9FD9-46A0-808A-0699EAF5AB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA8EDA6-50EB-4D46-9DE9-959A6C53B45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Curriculum" sheetId="1" state="hidden" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="387">
   <si>
     <t>Phase</t>
   </si>
@@ -1185,6 +1185,9 @@
   </si>
   <si>
     <t>project-employees-i</t>
+  </si>
+  <si>
+    <t>Working with Your Own Data and Documents in Python 2</t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1388,13 +1391,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1408,9 +1432,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1427,27 +1448,8 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4278,7 +4280,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="35" t="s">
         <v>320</v>
       </c>
       <c r="B1" t="s">
@@ -4286,37 +4288,37 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
+      <c r="A2" s="35"/>
       <c r="B2" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
+      <c r="A3" s="35"/>
       <c r="B3" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="35"/>
       <c r="B4" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
+      <c r="A5" s="35"/>
       <c r="B5" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+      <c r="A6" s="35"/>
       <c r="B6" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="35"/>
       <c r="B7" t="s">
         <v>324</v>
       </c>
@@ -4364,10 +4366,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="35" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
@@ -4378,8 +4380,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
       <c r="C3" t="s">
         <v>19</v>
       </c>
@@ -4388,8 +4390,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
       <c r="C4" t="s">
         <v>24</v>
       </c>
@@ -4410,8 +4412,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -4426,8 +4428,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -4436,8 +4438,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
       <c r="C7" t="s">
         <v>39</v>
       </c>
@@ -4446,8 +4448,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
       <c r="C8" t="s">
         <v>44</v>
       </c>
@@ -4456,8 +4458,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35" t="s">
         <v>49</v>
       </c>
       <c r="C9" t="s">
@@ -4468,8 +4470,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35" t="s">
         <v>49</v>
       </c>
       <c r="C10" t="s">
@@ -4480,8 +4482,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35" t="s">
         <v>49</v>
       </c>
       <c r="C11" t="s">
@@ -4492,8 +4494,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35" t="s">
         <v>49</v>
       </c>
       <c r="C12" t="s">
@@ -4504,8 +4506,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="35" t="s">
         <v>49</v>
       </c>
       <c r="C13" t="s">
@@ -4516,8 +4518,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18" t="s">
+      <c r="A14" s="35"/>
+      <c r="B14" s="35" t="s">
         <v>49</v>
       </c>
       <c r="C14" t="s">
@@ -4528,8 +4530,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="35"/>
+      <c r="B15" s="35" t="s">
         <v>49</v>
       </c>
       <c r="C15" t="s">
@@ -4540,8 +4542,8 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="35"/>
+      <c r="B16" s="35" t="s">
         <v>78</v>
       </c>
       <c r="C16" t="s">
@@ -4552,8 +4554,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18" t="s">
+      <c r="A17" s="35"/>
+      <c r="B17" s="35" t="s">
         <v>78</v>
       </c>
       <c r="C17" t="s">
@@ -4564,8 +4566,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="35"/>
+      <c r="B18" s="35" t="s">
         <v>78</v>
       </c>
       <c r="C18" t="s">
@@ -4576,8 +4578,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18" t="s">
+      <c r="A19" s="35"/>
+      <c r="B19" s="35" t="s">
         <v>78</v>
       </c>
       <c r="C19" t="s">
@@ -4588,8 +4590,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18" t="s">
+      <c r="A20" s="35"/>
+      <c r="B20" s="35" t="s">
         <v>78</v>
       </c>
       <c r="C20" t="s">
@@ -4600,8 +4602,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35" t="s">
         <v>78</v>
       </c>
       <c r="C21" t="s">
@@ -4612,8 +4614,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35" t="s">
         <v>78</v>
       </c>
       <c r="C22" t="s">
@@ -4624,8 +4626,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18" t="s">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35" t="s">
         <v>102</v>
       </c>
       <c r="C23" t="s">
@@ -4636,8 +4638,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18" t="s">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35" t="s">
         <v>102</v>
       </c>
       <c r="C24" t="s">
@@ -4648,8 +4650,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18" t="s">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35" t="s">
         <v>102</v>
       </c>
       <c r="C25" t="s">
@@ -4660,8 +4662,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18" t="s">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35" t="s">
         <v>102</v>
       </c>
       <c r="C26" t="s">
@@ -4672,8 +4674,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18" t="s">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35" t="s">
         <v>102</v>
       </c>
       <c r="C27" t="s">
@@ -4684,8 +4686,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18" t="s">
+      <c r="A28" s="35"/>
+      <c r="B28" s="35" t="s">
         <v>102</v>
       </c>
       <c r="C28" t="s">
@@ -4696,8 +4698,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="35"/>
+      <c r="B29" s="35" t="s">
         <v>102</v>
       </c>
       <c r="C29" t="s">
@@ -4708,10 +4710,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="35" t="s">
         <v>127</v>
       </c>
       <c r="C30" t="s">
@@ -4722,8 +4724,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18" t="s">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35" t="s">
         <v>127</v>
       </c>
       <c r="C31" t="s">
@@ -4734,8 +4736,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18" t="s">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35" t="s">
         <v>127</v>
       </c>
       <c r="C32" t="s">
@@ -4746,8 +4748,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18" t="s">
+      <c r="A33" s="35"/>
+      <c r="B33" s="35" t="s">
         <v>127</v>
       </c>
       <c r="C33" t="s">
@@ -4758,8 +4760,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18" t="s">
+      <c r="A34" s="35"/>
+      <c r="B34" s="35" t="s">
         <v>127</v>
       </c>
       <c r="C34" t="s">
@@ -4770,8 +4772,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18" t="s">
+      <c r="A35" s="35"/>
+      <c r="B35" s="35" t="s">
         <v>127</v>
       </c>
       <c r="C35" t="s">
@@ -4782,8 +4784,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18" t="s">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35" t="s">
         <v>127</v>
       </c>
       <c r="C36" t="s">
@@ -4794,8 +4796,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18" t="s">
+      <c r="A37" s="35"/>
+      <c r="B37" s="35" t="s">
         <v>152</v>
       </c>
       <c r="C37" t="s">
@@ -4806,8 +4808,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18" t="s">
+      <c r="A38" s="35"/>
+      <c r="B38" s="35" t="s">
         <v>152</v>
       </c>
       <c r="C38" t="s">
@@ -4818,8 +4820,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18" t="s">
+      <c r="A39" s="35"/>
+      <c r="B39" s="35" t="s">
         <v>152</v>
       </c>
       <c r="C39" t="s">
@@ -4830,8 +4832,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18" t="s">
+      <c r="A40" s="35"/>
+      <c r="B40" s="35" t="s">
         <v>152</v>
       </c>
       <c r="C40" t="s">
@@ -4842,8 +4844,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18" t="s">
+      <c r="A41" s="35"/>
+      <c r="B41" s="35" t="s">
         <v>152</v>
       </c>
       <c r="C41" t="s">
@@ -4854,8 +4856,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18" t="s">
+      <c r="A42" s="35"/>
+      <c r="B42" s="35" t="s">
         <v>152</v>
       </c>
       <c r="C42" t="s">
@@ -4866,8 +4868,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18" t="s">
+      <c r="A43" s="35"/>
+      <c r="B43" s="35" t="s">
         <v>152</v>
       </c>
       <c r="C43" t="s">
@@ -4878,8 +4880,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18" t="s">
+      <c r="A44" s="35"/>
+      <c r="B44" s="35" t="s">
         <v>176</v>
       </c>
       <c r="C44" t="s">
@@ -4890,8 +4892,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18" t="s">
+      <c r="A45" s="35"/>
+      <c r="B45" s="35" t="s">
         <v>176</v>
       </c>
       <c r="C45" t="s">
@@ -4902,8 +4904,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18" t="s">
+      <c r="A46" s="35"/>
+      <c r="B46" s="35" t="s">
         <v>176</v>
       </c>
       <c r="C46" t="s">
@@ -4914,8 +4916,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18" t="s">
+      <c r="A47" s="35"/>
+      <c r="B47" s="35" t="s">
         <v>176</v>
       </c>
       <c r="C47" t="s">
@@ -4926,8 +4928,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18" t="s">
+      <c r="A48" s="35"/>
+      <c r="B48" s="35" t="s">
         <v>176</v>
       </c>
       <c r="C48" t="s">
@@ -4938,8 +4940,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18" t="s">
+      <c r="A49" s="35"/>
+      <c r="B49" s="35" t="s">
         <v>176</v>
       </c>
       <c r="C49" t="s">
@@ -4950,8 +4952,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18" t="s">
+      <c r="A50" s="35"/>
+      <c r="B50" s="35" t="s">
         <v>176</v>
       </c>
       <c r="C50" t="s">
@@ -4962,8 +4964,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18" t="s">
+      <c r="A51" s="35"/>
+      <c r="B51" s="35" t="s">
         <v>199</v>
       </c>
       <c r="C51" t="s">
@@ -4974,8 +4976,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18" t="s">
+      <c r="A52" s="35"/>
+      <c r="B52" s="35" t="s">
         <v>199</v>
       </c>
       <c r="C52" t="s">
@@ -4986,8 +4988,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18" t="s">
+      <c r="A53" s="35"/>
+      <c r="B53" s="35" t="s">
         <v>199</v>
       </c>
       <c r="C53" t="s">
@@ -4998,8 +5000,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18" t="s">
+      <c r="A54" s="35"/>
+      <c r="B54" s="35" t="s">
         <v>199</v>
       </c>
       <c r="C54" t="s">
@@ -5010,8 +5012,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18" t="s">
+      <c r="A55" s="35"/>
+      <c r="B55" s="35" t="s">
         <v>199</v>
       </c>
       <c r="C55" t="s">
@@ -5022,8 +5024,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18" t="s">
+      <c r="A56" s="35"/>
+      <c r="B56" s="35" t="s">
         <v>199</v>
       </c>
       <c r="C56" t="s">
@@ -5034,8 +5036,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18" t="s">
+      <c r="A57" s="35"/>
+      <c r="B57" s="35" t="s">
         <v>199</v>
       </c>
       <c r="C57" t="s">
@@ -5046,10 +5048,10 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="B58" s="18" t="s">
+      <c r="B58" s="35" t="s">
         <v>224</v>
       </c>
       <c r="C58" t="s">
@@ -5060,8 +5062,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18" t="s">
+      <c r="A59" s="35"/>
+      <c r="B59" s="35" t="s">
         <v>224</v>
       </c>
       <c r="C59" t="s">
@@ -5072,8 +5074,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18" t="s">
+      <c r="A60" s="35"/>
+      <c r="B60" s="35" t="s">
         <v>224</v>
       </c>
       <c r="C60" t="s">
@@ -5084,8 +5086,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18" t="s">
+      <c r="A61" s="35"/>
+      <c r="B61" s="35" t="s">
         <v>224</v>
       </c>
       <c r="C61" t="s">
@@ -5096,8 +5098,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18" t="s">
+      <c r="A62" s="35"/>
+      <c r="B62" s="35" t="s">
         <v>224</v>
       </c>
       <c r="C62" t="s">
@@ -5108,8 +5110,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18" t="s">
+      <c r="A63" s="35"/>
+      <c r="B63" s="35" t="s">
         <v>224</v>
       </c>
       <c r="C63" t="s">
@@ -5120,8 +5122,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18" t="s">
+      <c r="A64" s="35"/>
+      <c r="B64" s="35" t="s">
         <v>224</v>
       </c>
       <c r="C64" t="s">
@@ -5132,8 +5134,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18" t="s">
+      <c r="A65" s="35"/>
+      <c r="B65" s="35" t="s">
         <v>249</v>
       </c>
       <c r="C65" t="s">
@@ -5144,8 +5146,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18" t="s">
+      <c r="A66" s="35"/>
+      <c r="B66" s="35" t="s">
         <v>249</v>
       </c>
       <c r="C66" t="s">
@@ -5156,8 +5158,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18" t="s">
+      <c r="A67" s="35"/>
+      <c r="B67" s="35" t="s">
         <v>249</v>
       </c>
       <c r="C67" t="s">
@@ -5168,8 +5170,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18" t="s">
+      <c r="A68" s="35"/>
+      <c r="B68" s="35" t="s">
         <v>249</v>
       </c>
       <c r="C68" t="s">
@@ -5180,8 +5182,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18" t="s">
+      <c r="A69" s="35"/>
+      <c r="B69" s="35" t="s">
         <v>249</v>
       </c>
       <c r="C69" t="s">
@@ -5192,8 +5194,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="18"/>
-      <c r="B70" s="18" t="s">
+      <c r="A70" s="35"/>
+      <c r="B70" s="35" t="s">
         <v>249</v>
       </c>
       <c r="C70" t="s">
@@ -5204,8 +5206,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18" t="s">
+      <c r="A71" s="35"/>
+      <c r="B71" s="35" t="s">
         <v>249</v>
       </c>
       <c r="C71" t="s">
@@ -5216,8 +5218,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="18"/>
-      <c r="B72" s="18" t="s">
+      <c r="A72" s="35"/>
+      <c r="B72" s="35" t="s">
         <v>273</v>
       </c>
       <c r="C72" t="s">
@@ -5228,8 +5230,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="18"/>
-      <c r="B73" s="18" t="s">
+      <c r="A73" s="35"/>
+      <c r="B73" s="35" t="s">
         <v>273</v>
       </c>
       <c r="C73" t="s">
@@ -5240,8 +5242,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18" t="s">
+      <c r="A74" s="35"/>
+      <c r="B74" s="35" t="s">
         <v>273</v>
       </c>
       <c r="C74" t="s">
@@ -5252,8 +5254,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="18"/>
-      <c r="B75" s="18" t="s">
+      <c r="A75" s="35"/>
+      <c r="B75" s="35" t="s">
         <v>273</v>
       </c>
       <c r="C75" t="s">
@@ -5264,8 +5266,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="18"/>
-      <c r="B76" s="18" t="s">
+      <c r="A76" s="35"/>
+      <c r="B76" s="35" t="s">
         <v>273</v>
       </c>
       <c r="C76" t="s">
@@ -5276,8 +5278,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="18"/>
-      <c r="B77" s="18" t="s">
+      <c r="A77" s="35"/>
+      <c r="B77" s="35" t="s">
         <v>273</v>
       </c>
       <c r="C77" t="s">
@@ -5288,8 +5290,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="18"/>
-      <c r="B78" s="18" t="s">
+      <c r="A78" s="35"/>
+      <c r="B78" s="35" t="s">
         <v>273</v>
       </c>
       <c r="C78" t="s">
@@ -5300,8 +5302,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="18"/>
-      <c r="B79" s="18" t="s">
+      <c r="A79" s="35"/>
+      <c r="B79" s="35" t="s">
         <v>296</v>
       </c>
       <c r="C79" t="s">
@@ -5312,8 +5314,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="18"/>
-      <c r="B80" s="18" t="s">
+      <c r="A80" s="35"/>
+      <c r="B80" s="35" t="s">
         <v>296</v>
       </c>
       <c r="C80" t="s">
@@ -5324,8 +5326,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18" t="s">
+      <c r="A81" s="35"/>
+      <c r="B81" s="35" t="s">
         <v>296</v>
       </c>
       <c r="C81" t="s">
@@ -5336,8 +5338,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="18"/>
-      <c r="B82" s="18" t="s">
+      <c r="A82" s="35"/>
+      <c r="B82" s="35" t="s">
         <v>296</v>
       </c>
       <c r="C82" t="s">
@@ -5348,8 +5350,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="18"/>
-      <c r="B83" s="18" t="s">
+      <c r="A83" s="35"/>
+      <c r="B83" s="35" t="s">
         <v>296</v>
       </c>
       <c r="C83" t="s">
@@ -5360,8 +5362,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="18"/>
-      <c r="B84" s="18" t="s">
+      <c r="A84" s="35"/>
+      <c r="B84" s="35" t="s">
         <v>296</v>
       </c>
       <c r="C84" t="s">
@@ -5372,8 +5374,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="18"/>
-      <c r="B85" s="18" t="s">
+      <c r="A85" s="35"/>
+      <c r="B85" s="35" t="s">
         <v>296</v>
       </c>
       <c r="C85" t="s">
@@ -5543,8 +5545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE52335-7D91-466B-9120-E00FFD104A09}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5562,30 +5564,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="34" t="s">
         <v>365</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="19" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="26" t="s">
         <v>368</v>
       </c>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -5616,17 +5618,17 @@
         <v>367</v>
       </c>
       <c r="L2" s="8"/>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
     </row>
     <row r="3" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
       <c r="B3">
@@ -5635,52 +5637,52 @@
       <c r="C3" t="s">
         <v>351</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="18">
         <v>46059</v>
       </c>
       <c r="E3" t="s">
         <v>355</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="18">
         <v>46059</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="18">
         <v>46060</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="25"/>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>352</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="18"/>
       <c r="E4" t="s">
         <v>355</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
     </row>
     <row r="5" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="10">
         <v>3</v>
       </c>
@@ -5696,19 +5698,19 @@
       <c r="F5" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="17"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="18"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="15">
+      <c r="A6" s="25">
         <v>2</v>
       </c>
       <c r="B6">
@@ -5717,79 +5719,79 @@
       <c r="C6" t="s">
         <v>359</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="18">
         <v>46060</v>
       </c>
       <c r="E6" t="s">
         <v>355</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="28" t="s">
         <v>371</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="18">
         <v>46060</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="24"/>
+      <c r="I6" s="18"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
+      <c r="A7" s="25"/>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>362</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="18"/>
       <c r="E7" t="s">
         <v>355</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
+      <c r="A8" s="25"/>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>363</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="18"/>
       <c r="E8" t="s">
         <v>355</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
     </row>
     <row r="9" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="10">
         <v>7</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="D9" s="23"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="10" t="s">
         <v>355</v>
       </c>
@@ -5797,18 +5799,18 @@
       <c r="G9" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="17"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="18"/>
       <c r="L9" s="11"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="15">
+      <c r="A10" s="25">
         <v>3</v>
       </c>
       <c r="B10">
@@ -5826,12 +5828,12 @@
       <c r="F10" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="18">
         <v>46062</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="25"/>
       <c r="B11">
         <v>9</v>
       </c>
@@ -5850,10 +5852,10 @@
       <c r="H11" s="3">
         <v>46061</v>
       </c>
-      <c r="I11" s="17"/>
+      <c r="I11" s="18"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="25"/>
       <c r="B12">
         <v>10</v>
       </c>
@@ -5869,13 +5871,13 @@
       <c r="G12" t="s">
         <v>381</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="18">
         <v>46062</v>
       </c>
-      <c r="I12" s="17"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="10">
         <v>11</v>
       </c>
@@ -5894,69 +5896,70 @@
       <c r="G13" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="17"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="18"/>
       <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="30">
+      <c r="A14" s="16">
         <v>4</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="22">
         <v>46062</v>
       </c>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="F14" s="37"/>
+      <c r="F14" s="23"/>
       <c r="G14" t="s">
         <v>381</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="18">
         <v>46062</v>
       </c>
-      <c r="I14" s="17"/>
+      <c r="I14" s="18"/>
     </row>
     <row r="15" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="10">
         <v>13</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="38"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="24"/>
       <c r="G15" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="17"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="18"/>
       <c r="L15" s="11"/>
     </row>
-    <row r="16" spans="1:18" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
         <v>5</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16">
         <v>14</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="29" t="s">
+      <c r="G16" t="s">
         <v>383</v>
       </c>
-      <c r="H16" s="32">
+      <c r="H16" s="22">
         <v>46063</v>
       </c>
-      <c r="L16" s="9"/>
+      <c r="I16" s="18">
+        <v>46064</v>
+      </c>
     </row>
     <row r="17" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="10">
         <v>15</v>
       </c>
@@ -5964,16 +5967,24 @@
       <c r="G17" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="H17" s="33">
-        <v>46063</v>
-      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="35"/>
       <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
+      <c r="A18" s="15">
+        <v>6</v>
+      </c>
       <c r="B18">
         <v>16</v>
       </c>
+      <c r="G18" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="H18" s="3">
+        <v>46064</v>
+      </c>
+      <c r="I18" s="35"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
@@ -6031,7 +6042,20 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:F27" xr:uid="{CAE52335-7D91-466B-9120-E00FFD104A09}"/>
-  <mergeCells count="23">
+  <mergeCells count="25">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I3:I9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="M2:R9"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I10:I15"/>
@@ -6041,20 +6065,9 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="A10:A13"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I3:I9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="M2:R9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="D3:D4"/>
     <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Goals and Tasks.xlsx
+++ b/Goals and Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanja\Documents\GitHub\AI-Python_Deeplearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA8EDA6-50EB-4D46-9DE9-959A6C53B45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8747825-FA9A-496A-9EF0-DF61C7B8BDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="388">
   <si>
     <t>Phase</t>
   </si>
@@ -1188,6 +1188,9 @@
   </si>
   <si>
     <t>Working with Your Own Data and Documents in Python 2</t>
+  </si>
+  <si>
+    <t>Day 4 Logic Building</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1391,16 +1394,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1418,38 +1451,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5545,8 +5555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE52335-7D91-466B-9120-E00FFD104A09}">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5564,30 +5574,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="34" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="26" t="s">
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="25" t="s">
         <v>368</v>
       </c>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -5618,17 +5628,17 @@
         <v>367</v>
       </c>
       <c r="L2" s="8"/>
-      <c r="M2" s="30" t="s">
+      <c r="M2" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
     </row>
     <row r="3" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25">
+      <c r="A3" s="19">
         <v>1</v>
       </c>
       <c r="B3">
@@ -5637,52 +5647,52 @@
       <c r="C3" t="s">
         <v>351</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="23">
         <v>46059</v>
       </c>
       <c r="E3" t="s">
         <v>355</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="23">
         <v>46059</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="23">
         <v>46060</v>
       </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="19"/>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>352</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="23"/>
       <c r="E4" t="s">
         <v>355</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
     </row>
     <row r="5" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="10">
         <v>3</v>
       </c>
@@ -5698,19 +5708,19 @@
       <c r="F5" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="18"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="23"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="28"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="25">
+      <c r="A6" s="19">
         <v>2</v>
       </c>
       <c r="B6">
@@ -5719,79 +5729,79 @@
       <c r="C6" t="s">
         <v>359</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="23">
         <v>46060</v>
       </c>
       <c r="E6" t="s">
         <v>355</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="23">
         <v>46060</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
+      <c r="I6" s="23"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="28"/>
+      <c r="R6" s="28"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
+      <c r="A7" s="19"/>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>362</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="23"/>
       <c r="E7" t="s">
         <v>355</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="28"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
+      <c r="A8" s="19"/>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>363</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="23"/>
       <c r="E8" t="s">
         <v>355</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
     </row>
     <row r="9" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="10">
         <v>7</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="D9" s="19"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="10" t="s">
         <v>355</v>
       </c>
@@ -5799,18 +5809,18 @@
       <c r="G9" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="H9" s="19"/>
-      <c r="I9" s="18"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="23"/>
       <c r="L9" s="11"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="25">
+      <c r="A10" s="19">
         <v>3</v>
       </c>
       <c r="B10">
@@ -5828,12 +5838,12 @@
       <c r="F10" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="23">
         <v>46062</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
+      <c r="A11" s="19"/>
       <c r="B11">
         <v>9</v>
       </c>
@@ -5852,10 +5862,10 @@
       <c r="H11" s="3">
         <v>46061</v>
       </c>
-      <c r="I11" s="18"/>
+      <c r="I11" s="23"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+      <c r="A12" s="19"/>
       <c r="B12">
         <v>10</v>
       </c>
@@ -5871,13 +5881,13 @@
       <c r="G12" t="s">
         <v>381</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="23">
         <v>46062</v>
       </c>
-      <c r="I12" s="18"/>
+      <c r="I12" s="23"/>
     </row>
     <row r="13" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="10">
         <v>11</v>
       </c>
@@ -5896,53 +5906,53 @@
       <c r="G13" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="H13" s="19"/>
-      <c r="I13" s="18"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="23"/>
       <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
+      <c r="A14" s="29">
         <v>4</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="37" t="s">
         <v>385</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="32">
         <v>46062</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="30" t="s">
         <v>355</v>
       </c>
-      <c r="F14" s="23"/>
+      <c r="F14" s="33"/>
       <c r="G14" t="s">
         <v>381</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="23">
         <v>46062</v>
       </c>
-      <c r="I14" s="18"/>
+      <c r="I14" s="23"/>
     </row>
     <row r="15" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="17"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="10">
         <v>13</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="24"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="34"/>
       <c r="G15" s="10" t="s">
         <v>382</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="18"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="23"/>
       <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
+      <c r="A16" s="29">
         <v>5</v>
       </c>
       <c r="B16">
@@ -5951,15 +5961,15 @@
       <c r="G16" t="s">
         <v>383</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H16" s="32">
         <v>46063</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="23">
         <v>46064</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="10">
         <v>15</v>
       </c>
@@ -5967,7 +5977,7 @@
       <c r="G17" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="24"/>
       <c r="I17" s="35"/>
       <c r="L17" s="11"/>
     </row>
@@ -5987,9 +5997,20 @@
       <c r="I18" s="35"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
+      <c r="A19" s="15">
+        <v>7</v>
+      </c>
       <c r="B19">
         <v>17</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>387</v>
+      </c>
+      <c r="H19" s="3">
+        <v>46065</v>
+      </c>
+      <c r="I19" s="3">
+        <v>46065</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -6043,19 +6064,6 @@
   </sheetData>
   <autoFilter ref="A2:F27" xr:uid="{CAE52335-7D91-466B-9120-E00FFD104A09}"/>
   <mergeCells count="25">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I3:I9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="M2:R9"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I10:I15"/>
@@ -6068,6 +6076,19 @@
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="I16:I18"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I3:I9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="M2:R9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Goals and Tasks.xlsx
+++ b/Goals and Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanja\Documents\GitHub\AI-Python_Deeplearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8747825-FA9A-496A-9EF0-DF61C7B8BDAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D23DC8-69E1-4CDE-BD1B-A03153D0246E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="393">
   <si>
     <t>Phase</t>
   </si>
@@ -1100,9 +1100,6 @@
     <t>Solved/Pending/Gone Wrong</t>
   </si>
   <si>
-    <t>Gone Wrong</t>
-  </si>
-  <si>
     <t>Need to read question clearly</t>
   </si>
   <si>
@@ -1112,9 +1109,6 @@
     <t>Solved Date</t>
   </si>
   <si>
-    <t>Re-solved 07-02-2026</t>
-  </si>
-  <si>
     <t>Invalid Tweets</t>
   </si>
   <si>
@@ -1151,9 +1145,6 @@
     <t>Customer Who Visited but Did Not Make Any Transactions</t>
   </si>
   <si>
-    <t>Re Visit</t>
-  </si>
-  <si>
     <t>Break the problem clearly</t>
   </si>
   <si>
@@ -1191,6 +1182,30 @@
   </si>
   <si>
     <t>Day 4 Logic Building</t>
+  </si>
+  <si>
+    <t>Extending Python with Packages and APIs 1</t>
+  </si>
+  <si>
+    <t>Extending Python with Packages and APIs 2</t>
+  </si>
+  <si>
+    <t>Students and Examinations</t>
+  </si>
+  <si>
+    <t>Revisit</t>
+  </si>
+  <si>
+    <t>average-time-of-process-per-machine</t>
+  </si>
+  <si>
+    <t>Employee Bonus</t>
+  </si>
+  <si>
+    <t>Managers with at Least 5 Direct Reports</t>
+  </si>
+  <si>
+    <t>Day 5 Logic Building</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1243,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1265,8 +1280,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1363,11 +1384,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1376,9 +1434,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1390,7 +1445,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1403,9 +1488,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1415,10 +1497,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1433,39 +1530,74 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -1489,10 +1621,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0AA15B0E-684F-48B8-B265-2EB7158EF548}" name="Table1" displayName="Table1" ref="A1:E9" totalsRowShown="0">
   <autoFilter ref="A1:E9" xr:uid="{0AA15B0E-684F-48B8-B265-2EB7158EF548}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E7BB40F8-19D2-4B39-B3E9-CAA0530E5372}" name="Category" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{E7BB40F8-19D2-4B39-B3E9-CAA0530E5372}" name="Category" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{591B2F2B-7E83-45AD-BA76-06AD1AE2C6E0}" name="Task"/>
     <tableColumn id="3" xr3:uid="{896B4302-5606-4CFB-BDC5-0514483D7668}" name="Details"/>
-    <tableColumn id="4" xr3:uid="{D0C6CBF7-85E7-4AE5-9082-C57CE8F05765}" name="Deadline" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{D0C6CBF7-85E7-4AE5-9082-C57CE8F05765}" name="Deadline" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{FA0B033C-C7AC-4972-A134-DD1B078EDFA5}" name="Remarks"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4290,7 +4422,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="39" t="s">
         <v>320</v>
       </c>
       <c r="B1" t="s">
@@ -4298,37 +4430,37 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
+      <c r="A2" s="39"/>
       <c r="B2" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
+      <c r="A3" s="39"/>
       <c r="B3" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
+      <c r="A4" s="39"/>
       <c r="B4" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
+      <c r="A5" s="39"/>
       <c r="B5" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
+      <c r="A6" s="39"/>
       <c r="B6" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
+      <c r="A7" s="39"/>
       <c r="B7" t="s">
         <v>324</v>
       </c>
@@ -4376,10 +4508,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="39" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
@@ -4390,8 +4522,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
       <c r="C3" t="s">
         <v>19</v>
       </c>
@@ -4400,8 +4532,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
       <c r="C4" t="s">
         <v>24</v>
       </c>
@@ -4422,8 +4554,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -4438,8 +4570,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -4448,8 +4580,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
       <c r="C7" t="s">
         <v>39</v>
       </c>
@@ -4458,8 +4590,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
       <c r="C8" t="s">
         <v>44</v>
       </c>
@@ -4468,8 +4600,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39" t="s">
         <v>49</v>
       </c>
       <c r="C9" t="s">
@@ -4480,8 +4612,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39" t="s">
         <v>49</v>
       </c>
       <c r="C10" t="s">
@@ -4492,8 +4624,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35" t="s">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39" t="s">
         <v>49</v>
       </c>
       <c r="C11" t="s">
@@ -4504,8 +4636,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35" t="s">
+      <c r="A12" s="39"/>
+      <c r="B12" s="39" t="s">
         <v>49</v>
       </c>
       <c r="C12" t="s">
@@ -4516,8 +4648,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35" t="s">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39" t="s">
         <v>49</v>
       </c>
       <c r="C13" t="s">
@@ -4528,8 +4660,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35" t="s">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39" t="s">
         <v>49</v>
       </c>
       <c r="C14" t="s">
@@ -4540,8 +4672,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35" t="s">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39" t="s">
         <v>49</v>
       </c>
       <c r="C15" t="s">
@@ -4552,8 +4684,8 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35" t="s">
+      <c r="A16" s="39"/>
+      <c r="B16" s="39" t="s">
         <v>78</v>
       </c>
       <c r="C16" t="s">
@@ -4564,8 +4696,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35" t="s">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39" t="s">
         <v>78</v>
       </c>
       <c r="C17" t="s">
@@ -4576,8 +4708,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35" t="s">
+      <c r="A18" s="39"/>
+      <c r="B18" s="39" t="s">
         <v>78</v>
       </c>
       <c r="C18" t="s">
@@ -4588,8 +4720,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35" t="s">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39" t="s">
         <v>78</v>
       </c>
       <c r="C19" t="s">
@@ -4600,8 +4732,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35" t="s">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39" t="s">
         <v>78</v>
       </c>
       <c r="C20" t="s">
@@ -4612,8 +4744,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35" t="s">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39" t="s">
         <v>78</v>
       </c>
       <c r="C21" t="s">
@@ -4624,8 +4756,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35" t="s">
+      <c r="A22" s="39"/>
+      <c r="B22" s="39" t="s">
         <v>78</v>
       </c>
       <c r="C22" t="s">
@@ -4636,8 +4768,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35" t="s">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39" t="s">
         <v>102</v>
       </c>
       <c r="C23" t="s">
@@ -4648,8 +4780,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35" t="s">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39" t="s">
         <v>102</v>
       </c>
       <c r="C24" t="s">
@@ -4660,8 +4792,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35" t="s">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39" t="s">
         <v>102</v>
       </c>
       <c r="C25" t="s">
@@ -4672,8 +4804,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35" t="s">
+      <c r="A26" s="39"/>
+      <c r="B26" s="39" t="s">
         <v>102</v>
       </c>
       <c r="C26" t="s">
@@ -4684,8 +4816,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35" t="s">
+      <c r="A27" s="39"/>
+      <c r="B27" s="39" t="s">
         <v>102</v>
       </c>
       <c r="C27" t="s">
@@ -4696,8 +4828,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35" t="s">
+      <c r="A28" s="39"/>
+      <c r="B28" s="39" t="s">
         <v>102</v>
       </c>
       <c r="C28" t="s">
@@ -4708,8 +4840,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35" t="s">
+      <c r="A29" s="39"/>
+      <c r="B29" s="39" t="s">
         <v>102</v>
       </c>
       <c r="C29" t="s">
@@ -4720,10 +4852,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="35" t="s">
+      <c r="A30" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="39" t="s">
         <v>127</v>
       </c>
       <c r="C30" t="s">
@@ -4734,8 +4866,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35" t="s">
+      <c r="A31" s="39"/>
+      <c r="B31" s="39" t="s">
         <v>127</v>
       </c>
       <c r="C31" t="s">
@@ -4746,8 +4878,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35" t="s">
+      <c r="A32" s="39"/>
+      <c r="B32" s="39" t="s">
         <v>127</v>
       </c>
       <c r="C32" t="s">
@@ -4758,8 +4890,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35" t="s">
+      <c r="A33" s="39"/>
+      <c r="B33" s="39" t="s">
         <v>127</v>
       </c>
       <c r="C33" t="s">
@@ -4770,8 +4902,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35" t="s">
+      <c r="A34" s="39"/>
+      <c r="B34" s="39" t="s">
         <v>127</v>
       </c>
       <c r="C34" t="s">
@@ -4782,8 +4914,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35" t="s">
+      <c r="A35" s="39"/>
+      <c r="B35" s="39" t="s">
         <v>127</v>
       </c>
       <c r="C35" t="s">
@@ -4794,8 +4926,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35" t="s">
+      <c r="A36" s="39"/>
+      <c r="B36" s="39" t="s">
         <v>127</v>
       </c>
       <c r="C36" t="s">
@@ -4806,8 +4938,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="35"/>
-      <c r="B37" s="35" t="s">
+      <c r="A37" s="39"/>
+      <c r="B37" s="39" t="s">
         <v>152</v>
       </c>
       <c r="C37" t="s">
@@ -4818,8 +4950,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35" t="s">
+      <c r="A38" s="39"/>
+      <c r="B38" s="39" t="s">
         <v>152</v>
       </c>
       <c r="C38" t="s">
@@ -4830,8 +4962,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35" t="s">
+      <c r="A39" s="39"/>
+      <c r="B39" s="39" t="s">
         <v>152</v>
       </c>
       <c r="C39" t="s">
@@ -4842,8 +4974,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35" t="s">
+      <c r="A40" s="39"/>
+      <c r="B40" s="39" t="s">
         <v>152</v>
       </c>
       <c r="C40" t="s">
@@ -4854,8 +4986,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35" t="s">
+      <c r="A41" s="39"/>
+      <c r="B41" s="39" t="s">
         <v>152</v>
       </c>
       <c r="C41" t="s">
@@ -4866,8 +4998,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35" t="s">
+      <c r="A42" s="39"/>
+      <c r="B42" s="39" t="s">
         <v>152</v>
       </c>
       <c r="C42" t="s">
@@ -4878,8 +5010,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35" t="s">
+      <c r="A43" s="39"/>
+      <c r="B43" s="39" t="s">
         <v>152</v>
       </c>
       <c r="C43" t="s">
@@ -4890,8 +5022,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35" t="s">
+      <c r="A44" s="39"/>
+      <c r="B44" s="39" t="s">
         <v>176</v>
       </c>
       <c r="C44" t="s">
@@ -4902,8 +5034,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35" t="s">
+      <c r="A45" s="39"/>
+      <c r="B45" s="39" t="s">
         <v>176</v>
       </c>
       <c r="C45" t="s">
@@ -4914,8 +5046,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35" t="s">
+      <c r="A46" s="39"/>
+      <c r="B46" s="39" t="s">
         <v>176</v>
       </c>
       <c r="C46" t="s">
@@ -4926,8 +5058,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35" t="s">
+      <c r="A47" s="39"/>
+      <c r="B47" s="39" t="s">
         <v>176</v>
       </c>
       <c r="C47" t="s">
@@ -4938,8 +5070,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="35"/>
-      <c r="B48" s="35" t="s">
+      <c r="A48" s="39"/>
+      <c r="B48" s="39" t="s">
         <v>176</v>
       </c>
       <c r="C48" t="s">
@@ -4950,8 +5082,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="35"/>
-      <c r="B49" s="35" t="s">
+      <c r="A49" s="39"/>
+      <c r="B49" s="39" t="s">
         <v>176</v>
       </c>
       <c r="C49" t="s">
@@ -4962,8 +5094,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35" t="s">
+      <c r="A50" s="39"/>
+      <c r="B50" s="39" t="s">
         <v>176</v>
       </c>
       <c r="C50" t="s">
@@ -4974,8 +5106,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="35"/>
-      <c r="B51" s="35" t="s">
+      <c r="A51" s="39"/>
+      <c r="B51" s="39" t="s">
         <v>199</v>
       </c>
       <c r="C51" t="s">
@@ -4986,8 +5118,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="35"/>
-      <c r="B52" s="35" t="s">
+      <c r="A52" s="39"/>
+      <c r="B52" s="39" t="s">
         <v>199</v>
       </c>
       <c r="C52" t="s">
@@ -4998,8 +5130,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="35"/>
-      <c r="B53" s="35" t="s">
+      <c r="A53" s="39"/>
+      <c r="B53" s="39" t="s">
         <v>199</v>
       </c>
       <c r="C53" t="s">
@@ -5010,8 +5142,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="35"/>
-      <c r="B54" s="35" t="s">
+      <c r="A54" s="39"/>
+      <c r="B54" s="39" t="s">
         <v>199</v>
       </c>
       <c r="C54" t="s">
@@ -5022,8 +5154,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="35"/>
-      <c r="B55" s="35" t="s">
+      <c r="A55" s="39"/>
+      <c r="B55" s="39" t="s">
         <v>199</v>
       </c>
       <c r="C55" t="s">
@@ -5034,8 +5166,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="35"/>
-      <c r="B56" s="35" t="s">
+      <c r="A56" s="39"/>
+      <c r="B56" s="39" t="s">
         <v>199</v>
       </c>
       <c r="C56" t="s">
@@ -5046,8 +5178,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="35"/>
-      <c r="B57" s="35" t="s">
+      <c r="A57" s="39"/>
+      <c r="B57" s="39" t="s">
         <v>199</v>
       </c>
       <c r="C57" t="s">
@@ -5058,10 +5190,10 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="35" t="s">
+      <c r="A58" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="39" t="s">
         <v>224</v>
       </c>
       <c r="C58" t="s">
@@ -5072,8 +5204,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="35"/>
-      <c r="B59" s="35" t="s">
+      <c r="A59" s="39"/>
+      <c r="B59" s="39" t="s">
         <v>224</v>
       </c>
       <c r="C59" t="s">
@@ -5084,8 +5216,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="35"/>
-      <c r="B60" s="35" t="s">
+      <c r="A60" s="39"/>
+      <c r="B60" s="39" t="s">
         <v>224</v>
       </c>
       <c r="C60" t="s">
@@ -5096,8 +5228,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="35"/>
-      <c r="B61" s="35" t="s">
+      <c r="A61" s="39"/>
+      <c r="B61" s="39" t="s">
         <v>224</v>
       </c>
       <c r="C61" t="s">
@@ -5108,8 +5240,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="35"/>
-      <c r="B62" s="35" t="s">
+      <c r="A62" s="39"/>
+      <c r="B62" s="39" t="s">
         <v>224</v>
       </c>
       <c r="C62" t="s">
@@ -5120,8 +5252,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="35"/>
-      <c r="B63" s="35" t="s">
+      <c r="A63" s="39"/>
+      <c r="B63" s="39" t="s">
         <v>224</v>
       </c>
       <c r="C63" t="s">
@@ -5132,8 +5264,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="35"/>
-      <c r="B64" s="35" t="s">
+      <c r="A64" s="39"/>
+      <c r="B64" s="39" t="s">
         <v>224</v>
       </c>
       <c r="C64" t="s">
@@ -5144,8 +5276,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="35"/>
-      <c r="B65" s="35" t="s">
+      <c r="A65" s="39"/>
+      <c r="B65" s="39" t="s">
         <v>249</v>
       </c>
       <c r="C65" t="s">
@@ -5156,8 +5288,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="35"/>
-      <c r="B66" s="35" t="s">
+      <c r="A66" s="39"/>
+      <c r="B66" s="39" t="s">
         <v>249</v>
       </c>
       <c r="C66" t="s">
@@ -5168,8 +5300,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="35"/>
-      <c r="B67" s="35" t="s">
+      <c r="A67" s="39"/>
+      <c r="B67" s="39" t="s">
         <v>249</v>
       </c>
       <c r="C67" t="s">
@@ -5180,8 +5312,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="35"/>
-      <c r="B68" s="35" t="s">
+      <c r="A68" s="39"/>
+      <c r="B68" s="39" t="s">
         <v>249</v>
       </c>
       <c r="C68" t="s">
@@ -5192,8 +5324,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="35"/>
-      <c r="B69" s="35" t="s">
+      <c r="A69" s="39"/>
+      <c r="B69" s="39" t="s">
         <v>249</v>
       </c>
       <c r="C69" t="s">
@@ -5204,8 +5336,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="35"/>
-      <c r="B70" s="35" t="s">
+      <c r="A70" s="39"/>
+      <c r="B70" s="39" t="s">
         <v>249</v>
       </c>
       <c r="C70" t="s">
@@ -5216,8 +5348,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="35"/>
-      <c r="B71" s="35" t="s">
+      <c r="A71" s="39"/>
+      <c r="B71" s="39" t="s">
         <v>249</v>
       </c>
       <c r="C71" t="s">
@@ -5228,8 +5360,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="35"/>
-      <c r="B72" s="35" t="s">
+      <c r="A72" s="39"/>
+      <c r="B72" s="39" t="s">
         <v>273</v>
       </c>
       <c r="C72" t="s">
@@ -5240,8 +5372,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="35"/>
-      <c r="B73" s="35" t="s">
+      <c r="A73" s="39"/>
+      <c r="B73" s="39" t="s">
         <v>273</v>
       </c>
       <c r="C73" t="s">
@@ -5252,8 +5384,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="35"/>
-      <c r="B74" s="35" t="s">
+      <c r="A74" s="39"/>
+      <c r="B74" s="39" t="s">
         <v>273</v>
       </c>
       <c r="C74" t="s">
@@ -5264,8 +5396,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="35"/>
-      <c r="B75" s="35" t="s">
+      <c r="A75" s="39"/>
+      <c r="B75" s="39" t="s">
         <v>273</v>
       </c>
       <c r="C75" t="s">
@@ -5276,8 +5408,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="35"/>
-      <c r="B76" s="35" t="s">
+      <c r="A76" s="39"/>
+      <c r="B76" s="39" t="s">
         <v>273</v>
       </c>
       <c r="C76" t="s">
@@ -5288,8 +5420,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="35"/>
-      <c r="B77" s="35" t="s">
+      <c r="A77" s="39"/>
+      <c r="B77" s="39" t="s">
         <v>273</v>
       </c>
       <c r="C77" t="s">
@@ -5300,8 +5432,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="35"/>
-      <c r="B78" s="35" t="s">
+      <c r="A78" s="39"/>
+      <c r="B78" s="39" t="s">
         <v>273</v>
       </c>
       <c r="C78" t="s">
@@ -5312,8 +5444,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="35"/>
-      <c r="B79" s="35" t="s">
+      <c r="A79" s="39"/>
+      <c r="B79" s="39" t="s">
         <v>296</v>
       </c>
       <c r="C79" t="s">
@@ -5324,8 +5456,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="35"/>
-      <c r="B80" s="35" t="s">
+      <c r="A80" s="39"/>
+      <c r="B80" s="39" t="s">
         <v>296</v>
       </c>
       <c r="C80" t="s">
@@ -5336,8 +5468,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="35"/>
-      <c r="B81" s="35" t="s">
+      <c r="A81" s="39"/>
+      <c r="B81" s="39" t="s">
         <v>296</v>
       </c>
       <c r="C81" t="s">
@@ -5348,8 +5480,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="35"/>
-      <c r="B82" s="35" t="s">
+      <c r="A82" s="39"/>
+      <c r="B82" s="39" t="s">
         <v>296</v>
       </c>
       <c r="C82" t="s">
@@ -5360,8 +5492,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="35"/>
-      <c r="B83" s="35" t="s">
+      <c r="A83" s="39"/>
+      <c r="B83" s="39" t="s">
         <v>296</v>
       </c>
       <c r="C83" t="s">
@@ -5372,8 +5504,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="35"/>
-      <c r="B84" s="35" t="s">
+      <c r="A84" s="39"/>
+      <c r="B84" s="39" t="s">
         <v>296</v>
       </c>
       <c r="C84" t="s">
@@ -5384,8 +5516,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="35"/>
-      <c r="B85" s="35" t="s">
+      <c r="A85" s="39"/>
+      <c r="B85" s="39" t="s">
         <v>296</v>
       </c>
       <c r="C85" t="s">
@@ -5556,7 +5688,7 @@
   <dimension ref="A1:R27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5565,39 +5697,39 @@
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.44140625" customWidth="1"/>
-    <col min="5" max="5" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.77734375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.77734375" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="50.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="9"/>
+    <col min="12" max="12" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="25" t="s">
-        <v>368</v>
-      </c>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="31" t="s">
+        <v>363</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -5610,35 +5742,35 @@
         <v>350</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="E2" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>333</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="L2" s="7"/>
+      <c r="M2" s="43" t="s">
         <v>367</v>
       </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="28" t="s">
-        <v>369</v>
-      </c>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
     </row>
     <row r="3" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
       <c r="B3">
@@ -5647,423 +5779,517 @@
       <c r="C3" t="s">
         <v>351</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="25">
         <v>46059</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>370</v>
-      </c>
-      <c r="H3" s="23">
+      <c r="G3" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="H3" s="25">
         <v>46059</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="25">
         <v>46060</v>
       </c>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
+      <c r="A4" s="26"/>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>352</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="28"/>
-    </row>
-    <row r="5" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="10">
+      <c r="G4" s="32"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+    </row>
+    <row r="5" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30"/>
+      <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="23"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="28"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="25"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="19">
+      <c r="A6" s="26">
         <v>2</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>359</v>
-      </c>
-      <c r="D6" s="23">
+        <v>358</v>
+      </c>
+      <c r="D6" s="25">
         <v>46060</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="H6" s="23">
+      <c r="G6" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="H6" s="25">
         <v>46060</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="28"/>
+      <c r="I6" s="25"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
+      <c r="A7" s="26"/>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>362</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="28"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
+      <c r="A8" s="26"/>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>363</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" t="s">
+        <v>361</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="28"/>
-    </row>
-    <row r="9" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="10">
+      <c r="G8" s="32"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+    </row>
+    <row r="9" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30"/>
+      <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="10" t="s">
+      <c r="C9" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12" t="s">
-        <v>372</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="H9" s="33"/>
+      <c r="I9" s="25"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="19">
+      <c r="A10" s="26">
         <v>3</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>373</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="E10" t="s">
-        <v>357</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="I10" s="23">
+        <v>371</v>
+      </c>
+      <c r="D10" s="17">
+        <v>46061</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="I10" s="25">
         <v>46062</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
+      <c r="A11" s="26"/>
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>376</v>
-      </c>
-      <c r="D11" s="3">
+        <v>373</v>
+      </c>
+      <c r="D11" s="17">
         <v>46061</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>355</v>
       </c>
       <c r="G11" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="H11" s="3">
         <v>46061</v>
       </c>
-      <c r="I11" s="23"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
+      <c r="A12" s="26"/>
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>377</v>
-      </c>
-      <c r="D12" s="3">
+        <v>374</v>
+      </c>
+      <c r="D12" s="17">
         <v>46061</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>355</v>
       </c>
       <c r="G12" t="s">
+        <v>378</v>
+      </c>
+      <c r="H12" s="25">
+        <v>46062</v>
+      </c>
+      <c r="I12" s="25"/>
+    </row>
+    <row r="13" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
+      <c r="B13" s="9">
+        <v>11</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="D13" s="17">
+        <v>46061</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="25"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" s="34">
+        <v>4</v>
+      </c>
+      <c r="B14" s="58">
+        <v>12</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>382</v>
+      </c>
+      <c r="D14" s="24">
+        <v>46062</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" t="s">
+        <v>378</v>
+      </c>
+      <c r="H14" s="25">
+        <v>46062</v>
+      </c>
+      <c r="I14" s="25"/>
+    </row>
+    <row r="15" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="H15" s="33"/>
+      <c r="I15" s="25"/>
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" s="34">
+        <v>5</v>
+      </c>
+      <c r="B16" s="48"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" t="s">
+        <v>380</v>
+      </c>
+      <c r="H16" s="24">
+        <v>46063</v>
+      </c>
+      <c r="I16" s="25">
+        <v>46064</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="30"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="H12" s="23">
-        <v>46062</v>
-      </c>
-      <c r="I12" s="23"/>
-    </row>
-    <row r="13" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="10">
-        <v>11</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="23"/>
-      <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="29">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-      <c r="C14" s="37" t="s">
+      <c r="H17" s="33"/>
+      <c r="I17" s="39"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13">
+        <v>6</v>
+      </c>
+      <c r="B18" s="57"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="H18" s="14">
+        <v>46064</v>
+      </c>
+      <c r="I18" s="39"/>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13">
+        <v>7</v>
+      </c>
+      <c r="B19" s="57"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="H19" s="14">
+        <v>46065</v>
+      </c>
+      <c r="I19" s="15">
+        <v>46065</v>
+      </c>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18">
+        <v>8</v>
+      </c>
+      <c r="B20" s="56"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="D14" s="32">
-        <v>46062</v>
-      </c>
-      <c r="E14" s="30" t="s">
+      <c r="H20" s="21">
+        <v>46066</v>
+      </c>
+      <c r="I20" s="24">
+        <v>46067</v>
+      </c>
+      <c r="L20" s="20"/>
+    </row>
+    <row r="21" spans="1:12" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="26">
+        <v>9</v>
+      </c>
+      <c r="B21" s="54">
+        <v>13</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>387</v>
+      </c>
+      <c r="D21" s="24">
+        <v>46067</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="44" t="s">
+        <v>386</v>
+      </c>
+      <c r="H21" s="46">
+        <v>46067</v>
+      </c>
+      <c r="I21" s="47"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="26"/>
+      <c r="B22" s="54">
+        <v>14</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>389</v>
+      </c>
+      <c r="D22" s="47"/>
+      <c r="E22" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="45" t="s">
+        <v>392</v>
+      </c>
+      <c r="H22" s="14">
+        <v>46067</v>
+      </c>
+      <c r="I22" s="33"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" s="54" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26"/>
+      <c r="B23" s="54">
+        <v>15</v>
+      </c>
+      <c r="C23" s="54" t="s">
+        <v>390</v>
+      </c>
+      <c r="D23" s="47"/>
+      <c r="E23" s="55" t="s">
         <v>355</v>
       </c>
-      <c r="F14" s="33"/>
-      <c r="G14" t="s">
-        <v>381</v>
-      </c>
-      <c r="H14" s="23">
-        <v>46062</v>
-      </c>
-      <c r="I14" s="23"/>
-    </row>
-    <row r="15" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="10">
-        <v>13</v>
-      </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="23"/>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="29">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>383</v>
-      </c>
-      <c r="H16" s="32">
-        <v>46063</v>
-      </c>
-      <c r="I16" s="23">
-        <v>46064</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="10">
-        <v>15</v>
-      </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="35"/>
-      <c r="L17" s="11"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
-        <v>6</v>
-      </c>
-      <c r="B18">
+      <c r="F23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30"/>
+      <c r="B24" s="9">
         <v>16</v>
       </c>
-      <c r="G18" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="H18" s="3">
-        <v>46064</v>
-      </c>
-      <c r="I18" s="35"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
-        <v>7</v>
-      </c>
-      <c r="B19">
+      <c r="C24" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25">
         <v>17</v>
       </c>
-      <c r="G19" s="36" t="s">
-        <v>387</v>
-      </c>
-      <c r="H19" s="3">
-        <v>46065</v>
-      </c>
-      <c r="I19" s="3">
-        <v>46065</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26">
-        <v>24</v>
-      </c>
-    </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27">
-        <v>25</v>
-      </c>
+      <c r="A27" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:F27" xr:uid="{CAE52335-7D91-466B-9120-E00FFD104A09}"/>
-  <mergeCells count="25">
+  <mergeCells count="31">
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="C16:F20"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I3:I9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="M2:R9"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="D3:D4"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I10:I15"/>
@@ -6071,26 +6297,16 @@
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I3:I9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="M2:R9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="D3:D4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
+  <conditionalFormatting sqref="E1:E15 E21:E1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Revisit"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Solved"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Goals and Tasks.xlsx
+++ b/Goals and Tasks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanja\Documents\GitHub\AI-Python_Deeplearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D23DC8-69E1-4CDE-BD1B-A03153D0246E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28753A39-6D52-45CC-9C20-D274C488F72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Curriculum" sheetId="1" state="hidden" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Day_to_Day" sheetId="2" state="hidden" r:id="rId3"/>
     <sheet name="Goal_Sheet" sheetId="4" r:id="rId4"/>
     <sheet name="Track_Sheet" sheetId="5" r:id="rId5"/>
+    <sheet name="Application Tracking" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Track_Sheet!$A$2:$F$27</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="425">
   <si>
     <t>Phase</t>
   </si>
@@ -1206,13 +1207,109 @@
   </si>
   <si>
     <t>Day 5 Logic Building</t>
+  </si>
+  <si>
+    <t>Confirmation Rate</t>
+  </si>
+  <si>
+    <t>Day 6 Logic Building</t>
+  </si>
+  <si>
+    <t>Percentage of Users Attended a Contest</t>
+  </si>
+  <si>
+    <t>Average Selling Price</t>
+  </si>
+  <si>
+    <t>The Number of Employees Which Report to Each Employee</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Applied On</t>
+  </si>
+  <si>
+    <t>Referal/Self</t>
+  </si>
+  <si>
+    <t>Deloitte</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/collections/recommended/?currentJobId=4357407817</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Azure Data Engineer</t>
+  </si>
+  <si>
+    <t>Linkedin</t>
+  </si>
+  <si>
+    <t>https://forms.office.com/pages/responsepage.aspx?id=8UXaNizdH02vE1q-RrmZIVirmxa615BIq82yKmbvZ29URDU1REZHTERWNUdOVVNINU81R05VWDI0Ty4u&amp;route=shorturl</t>
+  </si>
+  <si>
+    <t>Applied</t>
+  </si>
+  <si>
+    <t>Databricks Developer</t>
+  </si>
+  <si>
+    <t>LTIMindtree</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/4356042764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Engineer </t>
+  </si>
+  <si>
+    <t>Genpact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sr Analytics Engineer - Data Engineering </t>
+  </si>
+  <si>
+    <t>Info Services</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/4364488881</t>
+  </si>
+  <si>
+    <t>EVERSANA</t>
+  </si>
+  <si>
+    <t>Data Engineer</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/4280308130</t>
+  </si>
+  <si>
+    <t>Sr. No.</t>
+  </si>
+  <si>
+    <t>Data Engineer II</t>
+  </si>
+  <si>
+    <t>https://cutshort.io/profile/all-jobs?utm_source=linkedin-feed&amp;utm_medium=xml&amp;utm_content=job-posting&amp;applicationsource=linkedin-feed&amp;jobid=698de65454d7bcd1781d45e1</t>
+  </si>
+  <si>
+    <t>Cutshort</t>
+  </si>
+  <si>
+    <t>attryb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1238,6 +1335,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1422,10 +1527,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1434,7 +1540,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1470,13 +1575,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1488,6 +1592,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1496,27 +1603,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1527,25 +1613,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1554,15 +1652,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1570,11 +1661,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1621,10 +1746,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0AA15B0E-684F-48B8-B265-2EB7158EF548}" name="Table1" displayName="Table1" ref="A1:E9" totalsRowShown="0">
   <autoFilter ref="A1:E9" xr:uid="{0AA15B0E-684F-48B8-B265-2EB7158EF548}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{E7BB40F8-19D2-4B39-B3E9-CAA0530E5372}" name="Category" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{E7BB40F8-19D2-4B39-B3E9-CAA0530E5372}" name="Category" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{591B2F2B-7E83-45AD-BA76-06AD1AE2C6E0}" name="Task"/>
     <tableColumn id="3" xr3:uid="{896B4302-5606-4CFB-BDC5-0514483D7668}" name="Details"/>
-    <tableColumn id="4" xr3:uid="{D0C6CBF7-85E7-4AE5-9082-C57CE8F05765}" name="Deadline" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{D0C6CBF7-85E7-4AE5-9082-C57CE8F05765}" name="Deadline" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{FA0B033C-C7AC-4972-A134-DD1B078EDFA5}" name="Remarks"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4422,7 +4547,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="26" t="s">
         <v>320</v>
       </c>
       <c r="B1" t="s">
@@ -4430,37 +4555,37 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
+      <c r="A2" s="26"/>
       <c r="B2" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
+      <c r="A3" s="26"/>
       <c r="B3" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
+      <c r="A4" s="26"/>
       <c r="B4" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
+      <c r="A5" s="26"/>
       <c r="B5" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
+      <c r="A6" s="26"/>
       <c r="B6" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
+      <c r="A7" s="26"/>
       <c r="B7" t="s">
         <v>324</v>
       </c>
@@ -4508,10 +4633,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
@@ -4522,8 +4647,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
       <c r="C3" t="s">
         <v>19</v>
       </c>
@@ -4532,8 +4657,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
       <c r="C4" t="s">
         <v>24</v>
       </c>
@@ -4554,8 +4679,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -4570,8 +4695,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -4580,8 +4705,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
       <c r="C7" t="s">
         <v>39</v>
       </c>
@@ -4590,8 +4715,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="39"/>
-      <c r="B8" s="39"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
       <c r="C8" t="s">
         <v>44</v>
       </c>
@@ -4600,8 +4725,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39" t="s">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26" t="s">
         <v>49</v>
       </c>
       <c r="C9" t="s">
@@ -4612,8 +4737,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26" t="s">
         <v>49</v>
       </c>
       <c r="C10" t="s">
@@ -4624,8 +4749,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39" t="s">
+      <c r="A11" s="26"/>
+      <c r="B11" s="26" t="s">
         <v>49</v>
       </c>
       <c r="C11" t="s">
@@ -4636,8 +4761,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39" t="s">
+      <c r="A12" s="26"/>
+      <c r="B12" s="26" t="s">
         <v>49</v>
       </c>
       <c r="C12" t="s">
@@ -4648,8 +4773,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26" t="s">
         <v>49</v>
       </c>
       <c r="C13" t="s">
@@ -4660,8 +4785,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39" t="s">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26" t="s">
         <v>49</v>
       </c>
       <c r="C14" t="s">
@@ -4672,8 +4797,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39" t="s">
+      <c r="A15" s="26"/>
+      <c r="B15" s="26" t="s">
         <v>49</v>
       </c>
       <c r="C15" t="s">
@@ -4684,8 +4809,8 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39" t="s">
+      <c r="A16" s="26"/>
+      <c r="B16" s="26" t="s">
         <v>78</v>
       </c>
       <c r="C16" t="s">
@@ -4696,8 +4821,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39" t="s">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26" t="s">
         <v>78</v>
       </c>
       <c r="C17" t="s">
@@ -4708,8 +4833,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39" t="s">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26" t="s">
         <v>78</v>
       </c>
       <c r="C18" t="s">
@@ -4720,8 +4845,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="39"/>
-      <c r="B19" s="39" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="26" t="s">
         <v>78</v>
       </c>
       <c r="C19" t="s">
@@ -4732,8 +4857,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39" t="s">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26" t="s">
         <v>78</v>
       </c>
       <c r="C20" t="s">
@@ -4744,8 +4869,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39" t="s">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26" t="s">
         <v>78</v>
       </c>
       <c r="C21" t="s">
@@ -4756,8 +4881,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39" t="s">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26" t="s">
         <v>78</v>
       </c>
       <c r="C22" t="s">
@@ -4768,8 +4893,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="39"/>
-      <c r="B23" s="39" t="s">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26" t="s">
         <v>102</v>
       </c>
       <c r="C23" t="s">
@@ -4780,8 +4905,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39" t="s">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26" t="s">
         <v>102</v>
       </c>
       <c r="C24" t="s">
@@ -4792,8 +4917,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39" t="s">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26" t="s">
         <v>102</v>
       </c>
       <c r="C25" t="s">
@@ -4804,8 +4929,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39" t="s">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26" t="s">
         <v>102</v>
       </c>
       <c r="C26" t="s">
@@ -4816,8 +4941,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39" t="s">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26" t="s">
         <v>102</v>
       </c>
       <c r="C27" t="s">
@@ -4828,8 +4953,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39" t="s">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26" t="s">
         <v>102</v>
       </c>
       <c r="C28" t="s">
@@ -4840,8 +4965,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39" t="s">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26" t="s">
         <v>102</v>
       </c>
       <c r="C29" t="s">
@@ -4852,10 +4977,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="26" t="s">
         <v>127</v>
       </c>
       <c r="C30" t="s">
@@ -4866,8 +4991,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="39"/>
-      <c r="B31" s="39" t="s">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26" t="s">
         <v>127</v>
       </c>
       <c r="C31" t="s">
@@ -4878,8 +5003,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39" t="s">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26" t="s">
         <v>127</v>
       </c>
       <c r="C32" t="s">
@@ -4890,8 +5015,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="39"/>
-      <c r="B33" s="39" t="s">
+      <c r="A33" s="26"/>
+      <c r="B33" s="26" t="s">
         <v>127</v>
       </c>
       <c r="C33" t="s">
@@ -4902,8 +5027,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="39"/>
-      <c r="B34" s="39" t="s">
+      <c r="A34" s="26"/>
+      <c r="B34" s="26" t="s">
         <v>127</v>
       </c>
       <c r="C34" t="s">
@@ -4914,8 +5039,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="39"/>
-      <c r="B35" s="39" t="s">
+      <c r="A35" s="26"/>
+      <c r="B35" s="26" t="s">
         <v>127</v>
       </c>
       <c r="C35" t="s">
@@ -4926,8 +5051,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39" t="s">
+      <c r="A36" s="26"/>
+      <c r="B36" s="26" t="s">
         <v>127</v>
       </c>
       <c r="C36" t="s">
@@ -4938,8 +5063,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="39"/>
-      <c r="B37" s="39" t="s">
+      <c r="A37" s="26"/>
+      <c r="B37" s="26" t="s">
         <v>152</v>
       </c>
       <c r="C37" t="s">
@@ -4950,8 +5075,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39" t="s">
+      <c r="A38" s="26"/>
+      <c r="B38" s="26" t="s">
         <v>152</v>
       </c>
       <c r="C38" t="s">
@@ -4962,8 +5087,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39" t="s">
+      <c r="A39" s="26"/>
+      <c r="B39" s="26" t="s">
         <v>152</v>
       </c>
       <c r="C39" t="s">
@@ -4974,8 +5099,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39" t="s">
+      <c r="A40" s="26"/>
+      <c r="B40" s="26" t="s">
         <v>152</v>
       </c>
       <c r="C40" t="s">
@@ -4986,8 +5111,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39" t="s">
+      <c r="A41" s="26"/>
+      <c r="B41" s="26" t="s">
         <v>152</v>
       </c>
       <c r="C41" t="s">
@@ -4998,8 +5123,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39" t="s">
+      <c r="A42" s="26"/>
+      <c r="B42" s="26" t="s">
         <v>152</v>
       </c>
       <c r="C42" t="s">
@@ -5010,8 +5135,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="39"/>
-      <c r="B43" s="39" t="s">
+      <c r="A43" s="26"/>
+      <c r="B43" s="26" t="s">
         <v>152</v>
       </c>
       <c r="C43" t="s">
@@ -5022,8 +5147,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="39"/>
-      <c r="B44" s="39" t="s">
+      <c r="A44" s="26"/>
+      <c r="B44" s="26" t="s">
         <v>176</v>
       </c>
       <c r="C44" t="s">
@@ -5034,8 +5159,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="39"/>
-      <c r="B45" s="39" t="s">
+      <c r="A45" s="26"/>
+      <c r="B45" s="26" t="s">
         <v>176</v>
       </c>
       <c r="C45" t="s">
@@ -5046,8 +5171,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="39"/>
-      <c r="B46" s="39" t="s">
+      <c r="A46" s="26"/>
+      <c r="B46" s="26" t="s">
         <v>176</v>
       </c>
       <c r="C46" t="s">
@@ -5058,8 +5183,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="39"/>
-      <c r="B47" s="39" t="s">
+      <c r="A47" s="26"/>
+      <c r="B47" s="26" t="s">
         <v>176</v>
       </c>
       <c r="C47" t="s">
@@ -5070,8 +5195,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="39"/>
-      <c r="B48" s="39" t="s">
+      <c r="A48" s="26"/>
+      <c r="B48" s="26" t="s">
         <v>176</v>
       </c>
       <c r="C48" t="s">
@@ -5082,8 +5207,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="39"/>
-      <c r="B49" s="39" t="s">
+      <c r="A49" s="26"/>
+      <c r="B49" s="26" t="s">
         <v>176</v>
       </c>
       <c r="C49" t="s">
@@ -5094,8 +5219,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="39"/>
-      <c r="B50" s="39" t="s">
+      <c r="A50" s="26"/>
+      <c r="B50" s="26" t="s">
         <v>176</v>
       </c>
       <c r="C50" t="s">
@@ -5106,8 +5231,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="39"/>
-      <c r="B51" s="39" t="s">
+      <c r="A51" s="26"/>
+      <c r="B51" s="26" t="s">
         <v>199</v>
       </c>
       <c r="C51" t="s">
@@ -5118,8 +5243,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="39"/>
-      <c r="B52" s="39" t="s">
+      <c r="A52" s="26"/>
+      <c r="B52" s="26" t="s">
         <v>199</v>
       </c>
       <c r="C52" t="s">
@@ -5130,8 +5255,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="39"/>
-      <c r="B53" s="39" t="s">
+      <c r="A53" s="26"/>
+      <c r="B53" s="26" t="s">
         <v>199</v>
       </c>
       <c r="C53" t="s">
@@ -5142,8 +5267,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="39"/>
-      <c r="B54" s="39" t="s">
+      <c r="A54" s="26"/>
+      <c r="B54" s="26" t="s">
         <v>199</v>
       </c>
       <c r="C54" t="s">
@@ -5154,8 +5279,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39" t="s">
+      <c r="A55" s="26"/>
+      <c r="B55" s="26" t="s">
         <v>199</v>
       </c>
       <c r="C55" t="s">
@@ -5166,8 +5291,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="39"/>
-      <c r="B56" s="39" t="s">
+      <c r="A56" s="26"/>
+      <c r="B56" s="26" t="s">
         <v>199</v>
       </c>
       <c r="C56" t="s">
@@ -5178,8 +5303,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="39"/>
-      <c r="B57" s="39" t="s">
+      <c r="A57" s="26"/>
+      <c r="B57" s="26" t="s">
         <v>199</v>
       </c>
       <c r="C57" t="s">
@@ -5190,10 +5315,10 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="39" t="s">
+      <c r="A58" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="B58" s="39" t="s">
+      <c r="B58" s="26" t="s">
         <v>224</v>
       </c>
       <c r="C58" t="s">
@@ -5204,8 +5329,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="39"/>
-      <c r="B59" s="39" t="s">
+      <c r="A59" s="26"/>
+      <c r="B59" s="26" t="s">
         <v>224</v>
       </c>
       <c r="C59" t="s">
@@ -5216,8 +5341,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="39"/>
-      <c r="B60" s="39" t="s">
+      <c r="A60" s="26"/>
+      <c r="B60" s="26" t="s">
         <v>224</v>
       </c>
       <c r="C60" t="s">
@@ -5228,8 +5353,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="39"/>
-      <c r="B61" s="39" t="s">
+      <c r="A61" s="26"/>
+      <c r="B61" s="26" t="s">
         <v>224</v>
       </c>
       <c r="C61" t="s">
@@ -5240,8 +5365,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="39"/>
-      <c r="B62" s="39" t="s">
+      <c r="A62" s="26"/>
+      <c r="B62" s="26" t="s">
         <v>224</v>
       </c>
       <c r="C62" t="s">
@@ -5252,8 +5377,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="39"/>
-      <c r="B63" s="39" t="s">
+      <c r="A63" s="26"/>
+      <c r="B63" s="26" t="s">
         <v>224</v>
       </c>
       <c r="C63" t="s">
@@ -5264,8 +5389,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="39"/>
-      <c r="B64" s="39" t="s">
+      <c r="A64" s="26"/>
+      <c r="B64" s="26" t="s">
         <v>224</v>
       </c>
       <c r="C64" t="s">
@@ -5276,8 +5401,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="39"/>
-      <c r="B65" s="39" t="s">
+      <c r="A65" s="26"/>
+      <c r="B65" s="26" t="s">
         <v>249</v>
       </c>
       <c r="C65" t="s">
@@ -5288,8 +5413,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="39"/>
-      <c r="B66" s="39" t="s">
+      <c r="A66" s="26"/>
+      <c r="B66" s="26" t="s">
         <v>249</v>
       </c>
       <c r="C66" t="s">
@@ -5300,8 +5425,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="39"/>
-      <c r="B67" s="39" t="s">
+      <c r="A67" s="26"/>
+      <c r="B67" s="26" t="s">
         <v>249</v>
       </c>
       <c r="C67" t="s">
@@ -5312,8 +5437,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="39"/>
-      <c r="B68" s="39" t="s">
+      <c r="A68" s="26"/>
+      <c r="B68" s="26" t="s">
         <v>249</v>
       </c>
       <c r="C68" t="s">
@@ -5324,8 +5449,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="39"/>
-      <c r="B69" s="39" t="s">
+      <c r="A69" s="26"/>
+      <c r="B69" s="26" t="s">
         <v>249</v>
       </c>
       <c r="C69" t="s">
@@ -5336,8 +5461,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="39"/>
-      <c r="B70" s="39" t="s">
+      <c r="A70" s="26"/>
+      <c r="B70" s="26" t="s">
         <v>249</v>
       </c>
       <c r="C70" t="s">
@@ -5348,8 +5473,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="39"/>
-      <c r="B71" s="39" t="s">
+      <c r="A71" s="26"/>
+      <c r="B71" s="26" t="s">
         <v>249</v>
       </c>
       <c r="C71" t="s">
@@ -5360,8 +5485,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="39"/>
-      <c r="B72" s="39" t="s">
+      <c r="A72" s="26"/>
+      <c r="B72" s="26" t="s">
         <v>273</v>
       </c>
       <c r="C72" t="s">
@@ -5372,8 +5497,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="39"/>
-      <c r="B73" s="39" t="s">
+      <c r="A73" s="26"/>
+      <c r="B73" s="26" t="s">
         <v>273</v>
       </c>
       <c r="C73" t="s">
@@ -5384,8 +5509,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="39"/>
-      <c r="B74" s="39" t="s">
+      <c r="A74" s="26"/>
+      <c r="B74" s="26" t="s">
         <v>273</v>
       </c>
       <c r="C74" t="s">
@@ -5396,8 +5521,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="39"/>
-      <c r="B75" s="39" t="s">
+      <c r="A75" s="26"/>
+      <c r="B75" s="26" t="s">
         <v>273</v>
       </c>
       <c r="C75" t="s">
@@ -5408,8 +5533,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="39"/>
-      <c r="B76" s="39" t="s">
+      <c r="A76" s="26"/>
+      <c r="B76" s="26" t="s">
         <v>273</v>
       </c>
       <c r="C76" t="s">
@@ -5420,8 +5545,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="39"/>
-      <c r="B77" s="39" t="s">
+      <c r="A77" s="26"/>
+      <c r="B77" s="26" t="s">
         <v>273</v>
       </c>
       <c r="C77" t="s">
@@ -5432,8 +5557,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="39"/>
-      <c r="B78" s="39" t="s">
+      <c r="A78" s="26"/>
+      <c r="B78" s="26" t="s">
         <v>273</v>
       </c>
       <c r="C78" t="s">
@@ -5444,8 +5569,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="39"/>
-      <c r="B79" s="39" t="s">
+      <c r="A79" s="26"/>
+      <c r="B79" s="26" t="s">
         <v>296</v>
       </c>
       <c r="C79" t="s">
@@ -5456,8 +5581,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="39"/>
-      <c r="B80" s="39" t="s">
+      <c r="A80" s="26"/>
+      <c r="B80" s="26" t="s">
         <v>296</v>
       </c>
       <c r="C80" t="s">
@@ -5468,8 +5593,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="39"/>
-      <c r="B81" s="39" t="s">
+      <c r="A81" s="26"/>
+      <c r="B81" s="26" t="s">
         <v>296</v>
       </c>
       <c r="C81" t="s">
@@ -5480,8 +5605,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="39"/>
-      <c r="B82" s="39" t="s">
+      <c r="A82" s="26"/>
+      <c r="B82" s="26" t="s">
         <v>296</v>
       </c>
       <c r="C82" t="s">
@@ -5492,8 +5617,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="39"/>
-      <c r="B83" s="39" t="s">
+      <c r="A83" s="26"/>
+      <c r="B83" s="26" t="s">
         <v>296</v>
       </c>
       <c r="C83" t="s">
@@ -5504,8 +5629,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="39"/>
-      <c r="B84" s="39" t="s">
+      <c r="A84" s="26"/>
+      <c r="B84" s="26" t="s">
         <v>296</v>
       </c>
       <c r="C84" t="s">
@@ -5516,8 +5641,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="39"/>
-      <c r="B85" s="39" t="s">
+      <c r="A85" s="26"/>
+      <c r="B85" s="26" t="s">
         <v>296</v>
       </c>
       <c r="C85" t="s">
@@ -5685,10 +5810,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAE52335-7D91-466B-9120-E00FFD104A09}">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F23" sqref="C16:J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5698,11 +5823,11 @@
     <col min="3" max="3" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.44140625" customWidth="1"/>
     <col min="5" max="5" width="27.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.77734375" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="50.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="8"/>
+    <col min="12" max="12" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
@@ -5714,22 +5839,22 @@
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
       <c r="F1" s="29"/>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="32" t="s">
         <v>363</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="40" t="s">
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="34" t="s">
         <v>366</v>
       </c>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -5744,10 +5869,10 @@
       <c r="D2" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="22" t="s">
         <v>356</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>333</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -5759,18 +5884,18 @@
       <c r="I2" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="43" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="39" t="s">
         <v>367</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
     </row>
     <row r="3" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26">
+      <c r="A3" s="30">
         <v>1</v>
       </c>
       <c r="B3">
@@ -5779,78 +5904,78 @@
       <c r="C3" t="s">
         <v>351</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="37">
         <v>46059</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="33" t="s">
         <v>368</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="37">
         <v>46059</v>
       </c>
-      <c r="I3" s="25">
+      <c r="I3" s="37">
         <v>46060</v>
       </c>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
+      <c r="A4" s="30"/>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>352</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-    </row>
-    <row r="5" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="9">
+      <c r="G4" s="33"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+    </row>
+    <row r="5" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="8">
         <v>3</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="22" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="25"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="43"/>
-      <c r="O5" s="43"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="37"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="26">
+      <c r="A6" s="30">
         <v>2</v>
       </c>
       <c r="B6">
@@ -5859,98 +5984,98 @@
       <c r="C6" t="s">
         <v>358</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="37">
         <v>46060</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="G6" s="32" t="s">
+      <c r="G6" s="33" t="s">
         <v>369</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="37">
         <v>46060</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
+      <c r="I6" s="37"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+      <c r="A7" s="30"/>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>360</v>
       </c>
-      <c r="D7" s="25"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="43"/>
-      <c r="R7" s="43"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+      <c r="A8" s="30"/>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>361</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="43"/>
-      <c r="R8" s="43"/>
-    </row>
-    <row r="9" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
-      <c r="B9" s="9">
+      <c r="G8" s="33"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+    </row>
+    <row r="9" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
+      <c r="B9" s="8">
         <v>7</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="16" t="s">
+      <c r="D9" s="38"/>
+      <c r="E9" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="H9" s="33"/>
-      <c r="I9" s="25"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="43"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="37"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="39"/>
+      <c r="O9" s="39"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="26">
+      <c r="A10" s="30">
         <v>3</v>
       </c>
       <c r="B10">
@@ -5959,28 +6084,28 @@
       <c r="C10" t="s">
         <v>371</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <v>46061</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="I10" s="25">
+      <c r="I10" s="37">
         <v>46062</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
+      <c r="A11" s="30"/>
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>373</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <v>46061</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -5992,17 +6117,17 @@
       <c r="H11" s="3">
         <v>46061</v>
       </c>
-      <c r="I11" s="25"/>
+      <c r="I11" s="37"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
+      <c r="A12" s="30"/>
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>374</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>46061</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -6011,295 +6136,339 @@
       <c r="G12" t="s">
         <v>378</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="37">
         <v>46062</v>
       </c>
-      <c r="I12" s="25"/>
-    </row>
-    <row r="13" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="9">
+      <c r="I12" s="37"/>
+    </row>
+    <row r="13" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="31"/>
+      <c r="B13" s="8">
         <v>11</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <v>46061</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="25"/>
-      <c r="L13" s="10"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="37"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="34">
+      <c r="A14" s="41">
         <v>4</v>
       </c>
-      <c r="B14" s="58">
+      <c r="B14" s="51">
         <v>12</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="48" t="s">
         <v>382</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="40">
         <v>46062</v>
       </c>
-      <c r="E14" s="35" t="s">
+      <c r="E14" s="25" t="s">
         <v>355</v>
       </c>
-      <c r="F14" s="37"/>
+      <c r="F14" s="53"/>
       <c r="G14" t="s">
         <v>378</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="37">
         <v>46062</v>
       </c>
-      <c r="I14" s="25"/>
-    </row>
-    <row r="15" spans="1:18" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="9" t="s">
+      <c r="I14" s="37"/>
+    </row>
+    <row r="15" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="31"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="H15" s="33"/>
-      <c r="I15" s="25"/>
-      <c r="L15" s="10"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="37"/>
+      <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="34">
+      <c r="A16" s="41">
         <v>5</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
       <c r="G16" t="s">
         <v>380</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="40">
         <v>46063</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="37">
         <v>46064</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="9" t="s">
+    <row r="17" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="H17" s="33"/>
-      <c r="I17" s="39"/>
-      <c r="L17" s="10"/>
-    </row>
-    <row r="18" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13">
+      <c r="H17" s="38"/>
+      <c r="I17" s="26"/>
+      <c r="L17" s="9"/>
+    </row>
+    <row r="18" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12">
         <v>6</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="9" t="s">
+      <c r="B18" s="46"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <v>46064</v>
       </c>
-      <c r="I18" s="39"/>
-      <c r="L18" s="10"/>
-    </row>
-    <row r="19" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13">
+      <c r="I18" s="26"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
         <v>7</v>
       </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="9" t="s">
+      <c r="B19" s="46"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="13">
         <v>46065</v>
       </c>
-      <c r="I19" s="15">
+      <c r="I19" s="14">
         <v>46065</v>
       </c>
-      <c r="L19" s="10"/>
-    </row>
-    <row r="20" spans="1:12" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18">
+      <c r="L19" s="9"/>
+    </row>
+    <row r="20" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="17">
         <v>8</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="19" t="s">
+      <c r="B20" s="47"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="H20" s="21">
+      <c r="H20" s="20">
         <v>46066</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="40">
         <v>46067</v>
       </c>
-      <c r="L20" s="20"/>
-    </row>
-    <row r="21" spans="1:12" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26">
+      <c r="L20" s="19"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="30">
         <v>9</v>
       </c>
-      <c r="B21" s="54">
+      <c r="B21">
         <v>13</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" t="s">
         <v>387</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="40">
         <v>46067</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="44" t="s">
+      <c r="G21" s="23" t="s">
         <v>386</v>
       </c>
-      <c r="H21" s="46">
+      <c r="H21" s="3">
         <v>46067</v>
       </c>
-      <c r="I21" s="47"/>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="1:12" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="54">
+      <c r="I21" s="37"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
+      <c r="B22">
         <v>14</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" t="s">
         <v>389</v>
       </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="22" t="s">
+      <c r="D22" s="37"/>
+      <c r="E22" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="45" t="s">
+      <c r="G22" s="24" t="s">
         <v>392</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="13">
         <v>46067</v>
       </c>
-      <c r="I22" s="33"/>
-      <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="1:12" s="54" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="54">
+      <c r="I22" s="38"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="30"/>
+      <c r="B23">
         <v>15</v>
       </c>
-      <c r="C23" s="54" t="s">
+      <c r="C23" t="s">
         <v>390</v>
       </c>
-      <c r="D23" s="47"/>
-      <c r="E23" s="55" t="s">
+      <c r="D23" s="37"/>
+      <c r="E23" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="L23" s="8"/>
-    </row>
-    <row r="24" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="9">
+    </row>
+    <row r="24" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="31"/>
+      <c r="B24" s="8">
         <v>16</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="22" t="s">
+      <c r="D24" s="38"/>
+      <c r="E24" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="F24" s="10"/>
-      <c r="L24" s="10"/>
+      <c r="F24" s="9"/>
+      <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
+      <c r="A25" s="25">
+        <v>10</v>
+      </c>
       <c r="B25">
         <v>17</v>
       </c>
+      <c r="C25" t="s">
+        <v>393</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="G25" t="s">
+        <v>394</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
+      <c r="A26" s="26"/>
       <c r="B26">
         <v>18</v>
       </c>
+      <c r="C26" t="s">
+        <v>395</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
+      <c r="A27" s="26"/>
+      <c r="B27">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>396</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="26"/>
+      <c r="B28">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>397</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>388</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:F27" xr:uid="{CAE52335-7D91-466B-9120-E00FFD104A09}"/>
-  <mergeCells count="31">
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="C16:F20"/>
+  <mergeCells count="32">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="H12:H13"/>
     <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="M1:R1"/>
     <mergeCell ref="G3:G5"/>
     <mergeCell ref="H3:H5"/>
     <mergeCell ref="I3:I9"/>
     <mergeCell ref="H6:H9"/>
     <mergeCell ref="M2:R9"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A25:A28"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="G1:L1"/>
     <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="C16:F20"/>
+    <mergeCell ref="B16:B20"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I10:I15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="E1:E15 E21:E1048576">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Revisit"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>"Solved"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Revisit"</formula>
     </cfRule>
@@ -6310,4 +6479,188 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BF58CB-61CC-4DD9-B1ED-99B7E325FEF1}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C2" s="3">
+        <v>46068</v>
+      </c>
+      <c r="D2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G2" t="s">
+        <v>403</v>
+      </c>
+      <c r="H2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C3" s="3">
+        <v>46068</v>
+      </c>
+      <c r="D3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>413</v>
+      </c>
+      <c r="C4" s="3">
+        <v>46068</v>
+      </c>
+      <c r="D4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C5" s="3">
+        <v>46068</v>
+      </c>
+      <c r="D5" t="s">
+        <v>414</v>
+      </c>
+      <c r="E5" t="s">
+        <v>406</v>
+      </c>
+      <c r="F5" t="s">
+        <v>408</v>
+      </c>
+      <c r="G5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>417</v>
+      </c>
+      <c r="C6" s="3">
+        <v>46068</v>
+      </c>
+      <c r="D6" t="s">
+        <v>418</v>
+      </c>
+      <c r="E6" t="s">
+        <v>406</v>
+      </c>
+      <c r="F6" t="s">
+        <v>408</v>
+      </c>
+      <c r="G6" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>424</v>
+      </c>
+      <c r="D7" t="s">
+        <v>421</v>
+      </c>
+      <c r="E7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G7" s="55" t="s">
+        <v>422</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{691FA9FC-0958-475A-BA67-B66EB1BC669B}"/>
+    <hyperlink ref="G5" r:id="rId2" xr:uid="{E64B8C6B-1E42-40B1-951E-20414005E1A6}"/>
+    <hyperlink ref="G7" r:id="rId3" xr:uid="{BE39D3AF-210A-4465-B896-D95355180528}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Goals and Tasks.xlsx
+++ b/Goals and Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanja\Documents\GitHub\AI-Python_Deeplearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28753A39-6D52-45CC-9C20-D274C488F72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67695C1C-D5CA-4AEB-B0B7-133338D0A554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="432">
   <si>
     <t>Phase</t>
   </si>
@@ -1303,6 +1303,27 @@
   </si>
   <si>
     <t>attryb</t>
+  </si>
+  <si>
+    <t>Meril</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/4360811378</t>
+  </si>
+  <si>
+    <t>Calfus Inc.</t>
+  </si>
+  <si>
+    <t>Senior/Data Engineer</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/4364539544</t>
+  </si>
+  <si>
+    <t>Grid Dynamics</t>
+  </si>
+  <si>
+    <t>https://www.griddynamics.com/careers/vacancy/49331</t>
   </si>
 </sst>
 </file>
@@ -1577,11 +1598,69 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1592,41 +1671,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1645,31 +1691,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4547,7 +4568,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>320</v>
       </c>
       <c r="B1" t="s">
@@ -4555,37 +4576,37 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
+      <c r="A2" s="27"/>
       <c r="B2" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
+      <c r="A3" s="27"/>
       <c r="B3" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
+      <c r="A4" s="27"/>
       <c r="B4" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
+      <c r="A5" s="27"/>
       <c r="B5" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
+      <c r="A6" s="27"/>
       <c r="B6" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
+      <c r="A7" s="27"/>
       <c r="B7" t="s">
         <v>324</v>
       </c>
@@ -4633,10 +4654,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
@@ -4647,8 +4668,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
       <c r="C3" t="s">
         <v>19</v>
       </c>
@@ -4657,8 +4678,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
       <c r="C4" t="s">
         <v>24</v>
       </c>
@@ -4679,8 +4700,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
       <c r="C5" t="s">
         <v>29</v>
       </c>
@@ -4695,8 +4716,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
       <c r="C6" t="s">
         <v>34</v>
       </c>
@@ -4705,8 +4726,8 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
       <c r="C7" t="s">
         <v>39</v>
       </c>
@@ -4715,8 +4736,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
       <c r="C8" t="s">
         <v>44</v>
       </c>
@@ -4725,8 +4746,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27" t="s">
         <v>49</v>
       </c>
       <c r="C9" t="s">
@@ -4737,8 +4758,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27" t="s">
         <v>49</v>
       </c>
       <c r="C10" t="s">
@@ -4749,8 +4770,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27" t="s">
         <v>49</v>
       </c>
       <c r="C11" t="s">
@@ -4761,8 +4782,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27" t="s">
         <v>49</v>
       </c>
       <c r="C12" t="s">
@@ -4773,8 +4794,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27" t="s">
         <v>49</v>
       </c>
       <c r="C13" t="s">
@@ -4785,8 +4806,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27" t="s">
         <v>49</v>
       </c>
       <c r="C14" t="s">
@@ -4797,8 +4818,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27" t="s">
         <v>49</v>
       </c>
       <c r="C15" t="s">
@@ -4809,8 +4830,8 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26" t="s">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27" t="s">
         <v>78</v>
       </c>
       <c r="C16" t="s">
@@ -4821,8 +4842,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27" t="s">
         <v>78</v>
       </c>
       <c r="C17" t="s">
@@ -4833,8 +4854,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27" t="s">
         <v>78</v>
       </c>
       <c r="C18" t="s">
@@ -4845,8 +4866,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="27" t="s">
         <v>78</v>
       </c>
       <c r="C19" t="s">
@@ -4857,8 +4878,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27" t="s">
         <v>78</v>
       </c>
       <c r="C20" t="s">
@@ -4869,8 +4890,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27" t="s">
         <v>78</v>
       </c>
       <c r="C21" t="s">
@@ -4881,8 +4902,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26" t="s">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27" t="s">
         <v>78</v>
       </c>
       <c r="C22" t="s">
@@ -4893,8 +4914,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26" t="s">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27" t="s">
         <v>102</v>
       </c>
       <c r="C23" t="s">
@@ -4905,8 +4926,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26" t="s">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27" t="s">
         <v>102</v>
       </c>
       <c r="C24" t="s">
@@ -4917,8 +4938,8 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26" t="s">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27" t="s">
         <v>102</v>
       </c>
       <c r="C25" t="s">
@@ -4929,8 +4950,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26" t="s">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27" t="s">
         <v>102</v>
       </c>
       <c r="C26" t="s">
@@ -4941,8 +4962,8 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26" t="s">
+      <c r="A27" s="27"/>
+      <c r="B27" s="27" t="s">
         <v>102</v>
       </c>
       <c r="C27" t="s">
@@ -4953,8 +4974,8 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26" t="s">
+      <c r="A28" s="27"/>
+      <c r="B28" s="27" t="s">
         <v>102</v>
       </c>
       <c r="C28" t="s">
@@ -4965,8 +4986,8 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26" t="s">
+      <c r="A29" s="27"/>
+      <c r="B29" s="27" t="s">
         <v>102</v>
       </c>
       <c r="C29" t="s">
@@ -4977,10 +4998,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="27" t="s">
         <v>127</v>
       </c>
       <c r="C30" t="s">
@@ -4991,8 +5012,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26" t="s">
+      <c r="A31" s="27"/>
+      <c r="B31" s="27" t="s">
         <v>127</v>
       </c>
       <c r="C31" t="s">
@@ -5003,8 +5024,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26" t="s">
+      <c r="A32" s="27"/>
+      <c r="B32" s="27" t="s">
         <v>127</v>
       </c>
       <c r="C32" t="s">
@@ -5015,8 +5036,8 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26" t="s">
+      <c r="A33" s="27"/>
+      <c r="B33" s="27" t="s">
         <v>127</v>
       </c>
       <c r="C33" t="s">
@@ -5027,8 +5048,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26" t="s">
+      <c r="A34" s="27"/>
+      <c r="B34" s="27" t="s">
         <v>127</v>
       </c>
       <c r="C34" t="s">
@@ -5039,8 +5060,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26" t="s">
+      <c r="A35" s="27"/>
+      <c r="B35" s="27" t="s">
         <v>127</v>
       </c>
       <c r="C35" t="s">
@@ -5051,8 +5072,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26" t="s">
+      <c r="A36" s="27"/>
+      <c r="B36" s="27" t="s">
         <v>127</v>
       </c>
       <c r="C36" t="s">
@@ -5063,8 +5084,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26" t="s">
+      <c r="A37" s="27"/>
+      <c r="B37" s="27" t="s">
         <v>152</v>
       </c>
       <c r="C37" t="s">
@@ -5075,8 +5096,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26" t="s">
+      <c r="A38" s="27"/>
+      <c r="B38" s="27" t="s">
         <v>152</v>
       </c>
       <c r="C38" t="s">
@@ -5087,8 +5108,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26" t="s">
+      <c r="A39" s="27"/>
+      <c r="B39" s="27" t="s">
         <v>152</v>
       </c>
       <c r="C39" t="s">
@@ -5099,8 +5120,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26" t="s">
+      <c r="A40" s="27"/>
+      <c r="B40" s="27" t="s">
         <v>152</v>
       </c>
       <c r="C40" t="s">
@@ -5111,8 +5132,8 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26" t="s">
+      <c r="A41" s="27"/>
+      <c r="B41" s="27" t="s">
         <v>152</v>
       </c>
       <c r="C41" t="s">
@@ -5123,8 +5144,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26" t="s">
+      <c r="A42" s="27"/>
+      <c r="B42" s="27" t="s">
         <v>152</v>
       </c>
       <c r="C42" t="s">
@@ -5135,8 +5156,8 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26" t="s">
+      <c r="A43" s="27"/>
+      <c r="B43" s="27" t="s">
         <v>152</v>
       </c>
       <c r="C43" t="s">
@@ -5147,8 +5168,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26" t="s">
+      <c r="A44" s="27"/>
+      <c r="B44" s="27" t="s">
         <v>176</v>
       </c>
       <c r="C44" t="s">
@@ -5159,8 +5180,8 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26" t="s">
+      <c r="A45" s="27"/>
+      <c r="B45" s="27" t="s">
         <v>176</v>
       </c>
       <c r="C45" t="s">
@@ -5171,8 +5192,8 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26" t="s">
+      <c r="A46" s="27"/>
+      <c r="B46" s="27" t="s">
         <v>176</v>
       </c>
       <c r="C46" t="s">
@@ -5183,8 +5204,8 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26" t="s">
+      <c r="A47" s="27"/>
+      <c r="B47" s="27" t="s">
         <v>176</v>
       </c>
       <c r="C47" t="s">
@@ -5195,8 +5216,8 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26" t="s">
+      <c r="A48" s="27"/>
+      <c r="B48" s="27" t="s">
         <v>176</v>
       </c>
       <c r="C48" t="s">
@@ -5207,8 +5228,8 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26" t="s">
+      <c r="A49" s="27"/>
+      <c r="B49" s="27" t="s">
         <v>176</v>
       </c>
       <c r="C49" t="s">
@@ -5219,8 +5240,8 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26" t="s">
+      <c r="A50" s="27"/>
+      <c r="B50" s="27" t="s">
         <v>176</v>
       </c>
       <c r="C50" t="s">
@@ -5231,8 +5252,8 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26" t="s">
+      <c r="A51" s="27"/>
+      <c r="B51" s="27" t="s">
         <v>199</v>
       </c>
       <c r="C51" t="s">
@@ -5243,8 +5264,8 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="26"/>
-      <c r="B52" s="26" t="s">
+      <c r="A52" s="27"/>
+      <c r="B52" s="27" t="s">
         <v>199</v>
       </c>
       <c r="C52" t="s">
@@ -5255,8 +5276,8 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26" t="s">
+      <c r="A53" s="27"/>
+      <c r="B53" s="27" t="s">
         <v>199</v>
       </c>
       <c r="C53" t="s">
@@ -5267,8 +5288,8 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26" t="s">
+      <c r="A54" s="27"/>
+      <c r="B54" s="27" t="s">
         <v>199</v>
       </c>
       <c r="C54" t="s">
@@ -5279,8 +5300,8 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26" t="s">
+      <c r="A55" s="27"/>
+      <c r="B55" s="27" t="s">
         <v>199</v>
       </c>
       <c r="C55" t="s">
@@ -5291,8 +5312,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26" t="s">
+      <c r="A56" s="27"/>
+      <c r="B56" s="27" t="s">
         <v>199</v>
       </c>
       <c r="C56" t="s">
@@ -5303,8 +5324,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26" t="s">
+      <c r="A57" s="27"/>
+      <c r="B57" s="27" t="s">
         <v>199</v>
       </c>
       <c r="C57" t="s">
@@ -5315,10 +5336,10 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B58" s="27" t="s">
         <v>224</v>
       </c>
       <c r="C58" t="s">
@@ -5329,8 +5350,8 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="26"/>
-      <c r="B59" s="26" t="s">
+      <c r="A59" s="27"/>
+      <c r="B59" s="27" t="s">
         <v>224</v>
       </c>
       <c r="C59" t="s">
@@ -5341,8 +5362,8 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="26"/>
-      <c r="B60" s="26" t="s">
+      <c r="A60" s="27"/>
+      <c r="B60" s="27" t="s">
         <v>224</v>
       </c>
       <c r="C60" t="s">
@@ -5353,8 +5374,8 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="26"/>
-      <c r="B61" s="26" t="s">
+      <c r="A61" s="27"/>
+      <c r="B61" s="27" t="s">
         <v>224</v>
       </c>
       <c r="C61" t="s">
@@ -5365,8 +5386,8 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="26"/>
-      <c r="B62" s="26" t="s">
+      <c r="A62" s="27"/>
+      <c r="B62" s="27" t="s">
         <v>224</v>
       </c>
       <c r="C62" t="s">
@@ -5377,8 +5398,8 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="26"/>
-      <c r="B63" s="26" t="s">
+      <c r="A63" s="27"/>
+      <c r="B63" s="27" t="s">
         <v>224</v>
       </c>
       <c r="C63" t="s">
@@ -5389,8 +5410,8 @@
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="26"/>
-      <c r="B64" s="26" t="s">
+      <c r="A64" s="27"/>
+      <c r="B64" s="27" t="s">
         <v>224</v>
       </c>
       <c r="C64" t="s">
@@ -5401,8 +5422,8 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="26"/>
-      <c r="B65" s="26" t="s">
+      <c r="A65" s="27"/>
+      <c r="B65" s="27" t="s">
         <v>249</v>
       </c>
       <c r="C65" t="s">
@@ -5413,8 +5434,8 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="26"/>
-      <c r="B66" s="26" t="s">
+      <c r="A66" s="27"/>
+      <c r="B66" s="27" t="s">
         <v>249</v>
       </c>
       <c r="C66" t="s">
@@ -5425,8 +5446,8 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="26"/>
-      <c r="B67" s="26" t="s">
+      <c r="A67" s="27"/>
+      <c r="B67" s="27" t="s">
         <v>249</v>
       </c>
       <c r="C67" t="s">
@@ -5437,8 +5458,8 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="26"/>
-      <c r="B68" s="26" t="s">
+      <c r="A68" s="27"/>
+      <c r="B68" s="27" t="s">
         <v>249</v>
       </c>
       <c r="C68" t="s">
@@ -5449,8 +5470,8 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="26"/>
-      <c r="B69" s="26" t="s">
+      <c r="A69" s="27"/>
+      <c r="B69" s="27" t="s">
         <v>249</v>
       </c>
       <c r="C69" t="s">
@@ -5461,8 +5482,8 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="26"/>
-      <c r="B70" s="26" t="s">
+      <c r="A70" s="27"/>
+      <c r="B70" s="27" t="s">
         <v>249</v>
       </c>
       <c r="C70" t="s">
@@ -5473,8 +5494,8 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="26"/>
-      <c r="B71" s="26" t="s">
+      <c r="A71" s="27"/>
+      <c r="B71" s="27" t="s">
         <v>249</v>
       </c>
       <c r="C71" t="s">
@@ -5485,8 +5506,8 @@
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="26"/>
-      <c r="B72" s="26" t="s">
+      <c r="A72" s="27"/>
+      <c r="B72" s="27" t="s">
         <v>273</v>
       </c>
       <c r="C72" t="s">
@@ -5497,8 +5518,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="26"/>
-      <c r="B73" s="26" t="s">
+      <c r="A73" s="27"/>
+      <c r="B73" s="27" t="s">
         <v>273</v>
       </c>
       <c r="C73" t="s">
@@ -5509,8 +5530,8 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="26"/>
-      <c r="B74" s="26" t="s">
+      <c r="A74" s="27"/>
+      <c r="B74" s="27" t="s">
         <v>273</v>
       </c>
       <c r="C74" t="s">
@@ -5521,8 +5542,8 @@
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="26"/>
-      <c r="B75" s="26" t="s">
+      <c r="A75" s="27"/>
+      <c r="B75" s="27" t="s">
         <v>273</v>
       </c>
       <c r="C75" t="s">
@@ -5533,8 +5554,8 @@
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="26"/>
-      <c r="B76" s="26" t="s">
+      <c r="A76" s="27"/>
+      <c r="B76" s="27" t="s">
         <v>273</v>
       </c>
       <c r="C76" t="s">
@@ -5545,8 +5566,8 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="26"/>
-      <c r="B77" s="26" t="s">
+      <c r="A77" s="27"/>
+      <c r="B77" s="27" t="s">
         <v>273</v>
       </c>
       <c r="C77" t="s">
@@ -5557,8 +5578,8 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="26"/>
-      <c r="B78" s="26" t="s">
+      <c r="A78" s="27"/>
+      <c r="B78" s="27" t="s">
         <v>273</v>
       </c>
       <c r="C78" t="s">
@@ -5569,8 +5590,8 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="26"/>
-      <c r="B79" s="26" t="s">
+      <c r="A79" s="27"/>
+      <c r="B79" s="27" t="s">
         <v>296</v>
       </c>
       <c r="C79" t="s">
@@ -5581,8 +5602,8 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="26"/>
-      <c r="B80" s="26" t="s">
+      <c r="A80" s="27"/>
+      <c r="B80" s="27" t="s">
         <v>296</v>
       </c>
       <c r="C80" t="s">
@@ -5593,8 +5614,8 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="26"/>
-      <c r="B81" s="26" t="s">
+      <c r="A81" s="27"/>
+      <c r="B81" s="27" t="s">
         <v>296</v>
       </c>
       <c r="C81" t="s">
@@ -5605,8 +5626,8 @@
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="26"/>
-      <c r="B82" s="26" t="s">
+      <c r="A82" s="27"/>
+      <c r="B82" s="27" t="s">
         <v>296</v>
       </c>
       <c r="C82" t="s">
@@ -5617,8 +5638,8 @@
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="26"/>
-      <c r="B83" s="26" t="s">
+      <c r="A83" s="27"/>
+      <c r="B83" s="27" t="s">
         <v>296</v>
       </c>
       <c r="C83" t="s">
@@ -5629,8 +5650,8 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="26"/>
-      <c r="B84" s="26" t="s">
+      <c r="A84" s="27"/>
+      <c r="B84" s="27" t="s">
         <v>296</v>
       </c>
       <c r="C84" t="s">
@@ -5641,8 +5662,8 @@
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="26"/>
-      <c r="B85" s="26" t="s">
+      <c r="A85" s="27"/>
+      <c r="B85" s="27" t="s">
         <v>296</v>
       </c>
       <c r="C85" t="s">
@@ -5831,30 +5852,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="47" t="s">
         <v>329</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="32" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="50" t="s">
         <v>363</v>
       </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="34" t="s">
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="42" t="s">
         <v>366</v>
       </c>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
     </row>
     <row r="2" spans="1:18" s="4" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
@@ -5885,17 +5906,17 @@
         <v>365</v>
       </c>
       <c r="L2" s="6"/>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="46" t="s">
         <v>367</v>
       </c>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
     </row>
     <row r="3" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30">
+      <c r="A3" s="37">
         <v>1</v>
       </c>
       <c r="B3">
@@ -5904,52 +5925,52 @@
       <c r="C3" t="s">
         <v>351</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="30">
         <v>46059</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="44" t="s">
         <v>368</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="30">
         <v>46059</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="30">
         <v>46060</v>
       </c>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
+      <c r="A4" s="37"/>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>352</v>
       </c>
-      <c r="D4" s="37"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
     </row>
     <row r="5" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="8">
         <v>3</v>
       </c>
@@ -5963,19 +5984,19 @@
       <c r="F5" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="37"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="30"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="46"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="46"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="30">
+      <c r="A6" s="37">
         <v>2</v>
       </c>
       <c r="B6">
@@ -5984,79 +6005,79 @@
       <c r="C6" t="s">
         <v>358</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="30">
         <v>46060</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="44" t="s">
         <v>369</v>
       </c>
-      <c r="H6" s="37">
+      <c r="H6" s="30">
         <v>46060</v>
       </c>
-      <c r="I6" s="37"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
+      <c r="I6" s="30"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+      <c r="A7" s="37"/>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>360</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="G7" s="33"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="39"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="46"/>
+      <c r="P7" s="46"/>
+      <c r="Q7" s="46"/>
+      <c r="R7" s="46"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+      <c r="A8" s="37"/>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>361</v>
       </c>
-      <c r="D8" s="37"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="39"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="39"/>
-      <c r="R8" s="39"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="46"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
     </row>
     <row r="9" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="8">
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="D9" s="38"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="15" t="s">
         <v>355</v>
       </c>
@@ -6064,18 +6085,18 @@
       <c r="G9" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="37"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="30"/>
       <c r="L9" s="9"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="39"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="46"/>
+      <c r="O9" s="46"/>
+      <c r="P9" s="46"/>
+      <c r="Q9" s="46"/>
+      <c r="R9" s="46"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="30">
+      <c r="A10" s="37">
         <v>3</v>
       </c>
       <c r="B10">
@@ -6093,12 +6114,12 @@
       <c r="F10" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="30">
         <v>46062</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+      <c r="A11" s="37"/>
       <c r="B11">
         <v>9</v>
       </c>
@@ -6117,10 +6138,10 @@
       <c r="H11" s="3">
         <v>46061</v>
       </c>
-      <c r="I11" s="37"/>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+      <c r="A12" s="37"/>
       <c r="B12">
         <v>10</v>
       </c>
@@ -6136,13 +6157,13 @@
       <c r="G12" t="s">
         <v>378</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="30">
         <v>46062</v>
       </c>
-      <c r="I12" s="37"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="8">
         <v>11</v>
       </c>
@@ -6161,109 +6182,109 @@
       <c r="G13" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="37"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="30"/>
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="41">
+      <c r="A14" s="28">
         <v>4</v>
       </c>
-      <c r="B14" s="51">
+      <c r="B14" s="38">
         <v>12</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="32" t="s">
         <v>382</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="34">
         <v>46062</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="35" t="s">
         <v>355</v>
       </c>
-      <c r="F14" s="53"/>
+      <c r="F14" s="40"/>
       <c r="G14" t="s">
         <v>378</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="30">
         <v>46062</v>
       </c>
-      <c r="I14" s="37"/>
+      <c r="I14" s="30"/>
     </row>
     <row r="15" spans="1:18" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="54"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="37"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="30"/>
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="41">
+      <c r="A16" s="28">
         <v>5</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
       <c r="G16" t="s">
         <v>380</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="34">
         <v>46063</v>
       </c>
-      <c r="I16" s="37">
+      <c r="I16" s="30">
         <v>46064</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="H17" s="38"/>
-      <c r="I17" s="26"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="27"/>
       <c r="L17" s="9"/>
     </row>
     <row r="18" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>6</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="8" t="s">
         <v>383</v>
       </c>
       <c r="H18" s="13">
         <v>46064</v>
       </c>
-      <c r="I18" s="26"/>
+      <c r="I18" s="27"/>
       <c r="L18" s="9"/>
     </row>
     <row r="19" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>7</v>
       </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
       <c r="G19" s="8" t="s">
         <v>384</v>
       </c>
@@ -6279,24 +6300,24 @@
       <c r="A20" s="17">
         <v>8</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
       <c r="G20" s="18" t="s">
         <v>385</v>
       </c>
       <c r="H20" s="20">
         <v>46066</v>
       </c>
-      <c r="I20" s="40">
+      <c r="I20" s="34">
         <v>46067</v>
       </c>
       <c r="L20" s="19"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="30">
+      <c r="A21" s="37">
         <v>9</v>
       </c>
       <c r="B21">
@@ -6305,7 +6326,7 @@
       <c r="C21" t="s">
         <v>387</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="34">
         <v>46067</v>
       </c>
       <c r="E21" s="21" t="s">
@@ -6317,17 +6338,17 @@
       <c r="H21" s="3">
         <v>46067</v>
       </c>
-      <c r="I21" s="37"/>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+      <c r="A22" s="37"/>
       <c r="B22">
         <v>14</v>
       </c>
       <c r="C22" t="s">
         <v>389</v>
       </c>
-      <c r="D22" s="37"/>
+      <c r="D22" s="30"/>
       <c r="E22" s="21" t="s">
         <v>388</v>
       </c>
@@ -6337,30 +6358,30 @@
       <c r="H22" s="13">
         <v>46067</v>
       </c>
-      <c r="I22" s="38"/>
+      <c r="I22" s="31"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+      <c r="A23" s="37"/>
       <c r="B23">
         <v>15</v>
       </c>
       <c r="C23" t="s">
         <v>390</v>
       </c>
-      <c r="D23" s="37"/>
+      <c r="D23" s="30"/>
       <c r="E23" s="2" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="8">
         <v>16</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="D24" s="38"/>
+      <c r="D24" s="31"/>
       <c r="E24" s="21" t="s">
         <v>388</v>
       </c>
@@ -6368,7 +6389,7 @@
       <c r="L24" s="9"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="25">
+      <c r="A25" s="35">
         <v>10</v>
       </c>
       <c r="B25">
@@ -6388,7 +6409,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
+      <c r="A26" s="27"/>
       <c r="B26">
         <v>18</v>
       </c>
@@ -6400,7 +6421,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
+      <c r="A27" s="27"/>
       <c r="B27">
         <v>19</v>
       </c>
@@ -6412,7 +6433,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
+      <c r="A28" s="27"/>
       <c r="B28">
         <v>20</v>
       </c>
@@ -6426,22 +6447,6 @@
   </sheetData>
   <autoFilter ref="A2:F27" xr:uid="{CAE52335-7D91-466B-9120-E00FFD104A09}"/>
   <mergeCells count="32">
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I10:I15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I3:I9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="M2:R9"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:A5"/>
@@ -6458,6 +6463,22 @@
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="D6:D9"/>
     <mergeCell ref="D3:D4"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I3:I9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="M2:R9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I10:I15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="E1:E15 E21:E1048576">
@@ -6483,10 +6504,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BF58CB-61CC-4DD9-B1ED-99B7E325FEF1}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6573,7 +6594,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="26" t="s">
         <v>413</v>
       </c>
       <c r="C4" s="3">
@@ -6642,6 +6663,9 @@
       <c r="B7" t="s">
         <v>424</v>
       </c>
+      <c r="C7" s="3">
+        <v>46068</v>
+      </c>
       <c r="D7" t="s">
         <v>421</v>
       </c>
@@ -6651,8 +6675,77 @@
       <c r="F7" t="s">
         <v>408</v>
       </c>
-      <c r="G7" s="55" t="s">
+      <c r="G7" s="25" t="s">
         <v>422</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>425</v>
+      </c>
+      <c r="C8" s="3">
+        <v>46069</v>
+      </c>
+      <c r="D8" t="s">
+        <v>412</v>
+      </c>
+      <c r="E8" t="s">
+        <v>406</v>
+      </c>
+      <c r="F8" t="s">
+        <v>408</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>427</v>
+      </c>
+      <c r="C9" s="3">
+        <v>46069</v>
+      </c>
+      <c r="D9" t="s">
+        <v>428</v>
+      </c>
+      <c r="E9" t="s">
+        <v>406</v>
+      </c>
+      <c r="F9" t="s">
+        <v>408</v>
+      </c>
+      <c r="G9" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>430</v>
+      </c>
+      <c r="C10" s="3">
+        <v>46069</v>
+      </c>
+      <c r="D10" t="s">
+        <v>405</v>
+      </c>
+      <c r="E10" t="s">
+        <v>406</v>
+      </c>
+      <c r="F10" t="s">
+        <v>408</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -6660,6 +6753,8 @@
     <hyperlink ref="G3" r:id="rId1" xr:uid="{691FA9FC-0958-475A-BA67-B66EB1BC669B}"/>
     <hyperlink ref="G5" r:id="rId2" xr:uid="{E64B8C6B-1E42-40B1-951E-20414005E1A6}"/>
     <hyperlink ref="G7" r:id="rId3" xr:uid="{BE39D3AF-210A-4465-B896-D95355180528}"/>
+    <hyperlink ref="G8" r:id="rId4" xr:uid="{7BDBFD25-1205-436B-AA41-24ADB41E5AF7}"/>
+    <hyperlink ref="G10" r:id="rId5" xr:uid="{94997BBB-9E59-4A5C-AFF1-22D69072C049}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
